--- a/assets/data/Recommendation/data/whole_data_cleaned.xlsx
+++ b/assets/data/Recommendation/data/whole_data_cleaned.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Recommendation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\wayou-lt\assets\data\Text Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD79A758-CC1D-4F45-A819-A2AE16B92204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC37415-AAD4-4692-98CB-51742D68E40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13635" yWindow="0" windowWidth="15165" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15165" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="1015">
   <si>
     <t>name</t>
   </si>
@@ -214,6 +214,9 @@
     <t>Caddebostan Cultural Center</t>
   </si>
   <si>
+    <t>2,6,16</t>
+  </si>
+  <si>
     <t>https://ckm.kadikoy.bel.tr/</t>
   </si>
   <si>
@@ -277,6 +280,9 @@
     <t>Fenerbahce Marina</t>
   </si>
   <si>
+    <t>9,13,15</t>
+  </si>
+  <si>
     <t>https://www.seturmarinas.com/Marina/Detail?marinaId=25</t>
   </si>
   <si>
@@ -307,6 +313,9 @@
     <t>Tepe Nautilus Shopping Center</t>
   </si>
   <si>
+    <t>15,16,18</t>
+  </si>
+  <si>
     <t>https://www.tepenautilus.com/index.html</t>
   </si>
   <si>
@@ -322,6 +331,9 @@
     <t>Moda Sea Club</t>
   </si>
   <si>
+    <t>13,16,17</t>
+  </si>
+  <si>
     <t>https://www.modadenizkulubu.org.tr/</t>
   </si>
   <si>
@@ -433,6 +445,9 @@
     <t>Sukru Saracoglu Stadium</t>
   </si>
   <si>
+    <t>16,17,18</t>
+  </si>
+  <si>
     <t>https://tr.wikipedia.org/wiki/Fenerbah%C3%A7e_%C5%9E%C3%BCkr%C3%BC_Saraco%C4%9Flu_Stadyumu</t>
   </si>
   <si>
@@ -511,6 +526,9 @@
     <t>Dorock XL</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>https://www.instagram.com/dorockxl/</t>
   </si>
   <si>
@@ -3046,28 +3064,7 @@
     <t>14,15</t>
   </si>
   <si>
-    <t>13,14,15,16</t>
-  </si>
-  <si>
-    <t>13,14,15,16,17</t>
-  </si>
-  <si>
-    <t>9,13</t>
-  </si>
-  <si>
-    <t>13,17,20</t>
-  </si>
-  <si>
-    <t>13,16,18</t>
-  </si>
-  <si>
-    <t>18,19</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>16,18</t>
+    <t>place_id</t>
   </si>
 </sst>
 </file>
@@ -3123,15 +3120,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3436,21 +3429,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D25" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="176.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="176.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3461,9 +3453,9 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3490,9 +3482,9 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
+        <v>370509</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
@@ -3519,9 +3511,9 @@
         <v>4.5</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>761356</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
@@ -3548,10 +3540,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1008</v>
+        <v>877687</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -3577,9 +3569,9 @@
         <v>4.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
+        <v>292410</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
@@ -3606,9 +3598,9 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>827370</v>
+      </c>
+      <c r="D6" t="s">
         <v>33</v>
       </c>
       <c r="E6" t="s">
@@ -3635,9 +3627,9 @@
         <v>4.7</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
+        <v>326087</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7" t="s">
@@ -3664,10 +3656,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>1009</v>
+        <v>311612</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
       </c>
       <c r="E8" t="s">
         <v>44</v>
@@ -3693,9 +3685,9 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>113129</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
       </c>
       <c r="E9" t="s">
@@ -3722,9 +3714,9 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
+        <v>932904</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
       <c r="E10" t="s">
@@ -3751,10 +3743,10 @@
         <v>4.5</v>
       </c>
       <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>1004</v>
+        <v>124157</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1010</v>
       </c>
       <c r="E11" t="s">
         <v>59</v>
@@ -3780,3386 +3772,3386 @@
         <v>4.5</v>
       </c>
       <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>886</v>
+        <v>126059</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13">
         <v>4.4000000000000004</v>
       </c>
       <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>1005</v>
+        <v>131564</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1011</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>74</v>
+        <v>517228</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15">
         <v>4.2</v>
       </c>
       <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>886</v>
+        <v>784820</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B16">
         <v>4.8</v>
       </c>
       <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>1010</v>
+        <v>199043</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B17">
         <v>4.7</v>
       </c>
       <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
+        <v>587424</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B18">
         <v>4.3</v>
       </c>
       <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>1011</v>
+        <v>921601</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B19">
         <v>4.8</v>
       </c>
       <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>1012</v>
+        <v>156464</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="I19" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B20">
         <v>4.5</v>
       </c>
       <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>105</v>
+        <v>648883</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B21">
         <v>4.8</v>
       </c>
       <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>1006</v>
+        <v>898991</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1012</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I21" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
       <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>1007</v>
+        <v>195027</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1013</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="I22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B23">
         <v>4.5</v>
       </c>
       <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>121</v>
+        <v>441361</v>
+      </c>
+      <c r="D23" t="s">
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F23" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I23" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B24">
         <v>4.5</v>
       </c>
       <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>105</v>
+        <v>107662</v>
+      </c>
+      <c r="D24" t="s">
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I24" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B25">
         <v>4.5</v>
       </c>
       <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>121</v>
+        <v>733989</v>
+      </c>
+      <c r="D25" t="s">
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I25" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B26">
         <v>4.4000000000000004</v>
       </c>
       <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>1013</v>
+        <v>432443</v>
+      </c>
+      <c r="D26" t="s">
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I26" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B27">
         <v>4.4000000000000004</v>
       </c>
       <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>142</v>
+        <v>176570</v>
+      </c>
+      <c r="D27" t="s">
+        <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F27" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I27" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B28">
         <v>4.8</v>
       </c>
       <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>142</v>
+        <v>372615</v>
+      </c>
+      <c r="D28" t="s">
+        <v>147</v>
       </c>
       <c r="E28" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F28" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G28">
         <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I28" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B29">
         <v>4.2</v>
       </c>
       <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>142</v>
+        <v>745475</v>
+      </c>
+      <c r="D29" t="s">
+        <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F29" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I29" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
       <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>142</v>
+        <v>950867</v>
+      </c>
+      <c r="D30" t="s">
+        <v>147</v>
       </c>
       <c r="E30" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F30" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I30" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B31">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>1015</v>
+        <v>744985</v>
+      </c>
+      <c r="D31" t="s">
+        <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F31" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I31" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B32">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>1014</v>
+        <v>846545</v>
+      </c>
+      <c r="D32">
+        <v>15</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F32" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I32" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B33">
-        <v>4.0999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>1014</v>
+        <v>656298</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="F33" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="G33">
         <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I33" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B34">
         <v>4.2</v>
       </c>
       <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>1014</v>
+        <v>820326</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F34" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="I34" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B35">
         <v>4.9000000000000004</v>
       </c>
       <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35" s="3">
+        <v>479281</v>
+      </c>
+      <c r="D35">
         <v>14.15</v>
       </c>
       <c r="E35" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F35" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="I35" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B36">
         <v>4.7</v>
       </c>
       <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36" s="3">
+        <v>165264</v>
+      </c>
+      <c r="D36">
         <v>14.15</v>
       </c>
       <c r="E36" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F36" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="I36" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B37">
         <v>4.7</v>
       </c>
       <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37" s="3">
+        <v>883675</v>
+      </c>
+      <c r="D37">
         <v>14.15</v>
       </c>
       <c r="E37" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F37" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="I37" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B38">
         <v>4.3</v>
       </c>
       <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38" s="3">
+        <v>161477</v>
+      </c>
+      <c r="D38">
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F38" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="I38" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B39">
         <v>4.5999999999999996</v>
       </c>
       <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39" s="3">
+        <v>407442</v>
+      </c>
+      <c r="D39">
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F39" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
       <c r="H39" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I39" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B40">
         <v>4.7</v>
       </c>
       <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40" s="3">
+        <v>775469</v>
+      </c>
+      <c r="D40">
         <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F40" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="I40" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B41">
         <v>4.7</v>
       </c>
       <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41" s="3">
+        <v>616147</v>
+      </c>
+      <c r="D41">
         <v>22</v>
       </c>
       <c r="E41" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F41" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G41">
         <v>2</v>
       </c>
       <c r="H41" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="I41" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B42">
         <v>4.8</v>
       </c>
       <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42" s="3">
+        <v>958153</v>
+      </c>
+      <c r="D42">
         <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F42" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="G42">
         <v>2</v>
       </c>
       <c r="H42" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="I42" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B43">
         <v>4.4000000000000004</v>
       </c>
       <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43" s="3">
+        <v>507399</v>
+      </c>
+      <c r="D43">
         <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F43" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="I43" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B44">
         <v>4</v>
       </c>
       <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44" s="3">
+        <v>201075</v>
+      </c>
+      <c r="D44">
         <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F44" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G44">
         <v>2</v>
       </c>
       <c r="H44" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I44" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B45">
         <v>4.5999999999999996</v>
       </c>
       <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>233</v>
+        <v>704220</v>
+      </c>
+      <c r="D45" t="s">
+        <v>239</v>
       </c>
       <c r="E45" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="F45" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="I45" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B46">
         <v>4.5</v>
       </c>
       <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>239</v>
+        <v>401221</v>
+      </c>
+      <c r="D46" t="s">
+        <v>245</v>
       </c>
       <c r="E46" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F46" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="G46">
         <v>2</v>
       </c>
       <c r="H46" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="I46" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B47">
         <v>4.7</v>
       </c>
       <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>245</v>
+        <v>286657</v>
+      </c>
+      <c r="D47" t="s">
+        <v>251</v>
       </c>
       <c r="E47" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F47" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="I47" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B48">
         <v>4.5999999999999996</v>
       </c>
       <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" s="3">
+        <v>965587</v>
+      </c>
+      <c r="D48">
         <v>9.1199999999999992</v>
       </c>
       <c r="E48" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F48" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="I48" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B49">
         <v>4.7</v>
       </c>
       <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>256</v>
+        <v>331296</v>
+      </c>
+      <c r="D49" t="s">
+        <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F49" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="I49" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B50">
         <v>4.9000000000000004</v>
       </c>
       <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" s="3">
+        <v>868833</v>
+      </c>
+      <c r="D50">
         <v>1.5</v>
       </c>
       <c r="E50" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F50" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="I50" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B51">
         <v>4.4000000000000004</v>
       </c>
       <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>267</v>
+        <v>601061</v>
+      </c>
+      <c r="D51" t="s">
+        <v>273</v>
       </c>
       <c r="E51" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F51" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="I51" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B52">
         <v>4.7</v>
       </c>
       <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>273</v>
+        <v>769885</v>
+      </c>
+      <c r="D52" t="s">
+        <v>279</v>
       </c>
       <c r="E52" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F52" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="I52" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B53">
         <v>4.5999999999999996</v>
       </c>
       <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>256</v>
+        <v>275853</v>
+      </c>
+      <c r="D53" t="s">
+        <v>262</v>
       </c>
       <c r="E53" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F53" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="I53" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B54">
         <v>4.7</v>
       </c>
       <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>245</v>
+        <v>140042</v>
+      </c>
+      <c r="D54" t="s">
+        <v>251</v>
       </c>
       <c r="E54" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="F54" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="I54" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B55">
         <v>4.5999999999999996</v>
       </c>
       <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>289</v>
+        <v>850483</v>
+      </c>
+      <c r="D55" t="s">
+        <v>295</v>
       </c>
       <c r="E55" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F55" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="I55" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
       <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>239</v>
+        <v>432515</v>
+      </c>
+      <c r="D56" t="s">
+        <v>245</v>
       </c>
       <c r="E56" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="F56" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="I56" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B57">
         <v>4.8</v>
       </c>
       <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>300</v>
+        <v>682423</v>
+      </c>
+      <c r="D57" t="s">
+        <v>306</v>
       </c>
       <c r="E57" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F57" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="I57" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B58">
         <v>4.4000000000000004</v>
       </c>
       <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>306</v>
+        <v>424824</v>
+      </c>
+      <c r="D58" t="s">
+        <v>312</v>
       </c>
       <c r="E58" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F58" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="I58" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B59">
         <v>4.5999999999999996</v>
       </c>
       <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>312</v>
+        <v>375467</v>
+      </c>
+      <c r="D59" t="s">
+        <v>318</v>
       </c>
       <c r="E59" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="F59" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="I59" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B60">
         <v>4.3</v>
       </c>
       <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>318</v>
+        <v>414821</v>
+      </c>
+      <c r="D60" t="s">
+        <v>324</v>
       </c>
       <c r="E60" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F60" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="I60" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B61">
         <v>4.2</v>
       </c>
       <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" s="3" t="s">
+        <v>496546</v>
+      </c>
+      <c r="D61" t="s">
         <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F61" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="I61" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B62">
         <v>4.5</v>
       </c>
       <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>233</v>
+        <v>770256</v>
+      </c>
+      <c r="D62" t="s">
+        <v>239</v>
       </c>
       <c r="E62" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F62" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="I62" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B63">
         <v>4.8</v>
       </c>
       <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>142</v>
+        <v>777046</v>
+      </c>
+      <c r="D63" t="s">
+        <v>147</v>
       </c>
       <c r="E63" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F63" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="I63" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B64">
         <v>4.5999999999999996</v>
       </c>
       <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>142</v>
+        <v>130835</v>
+      </c>
+      <c r="D64" t="s">
+        <v>147</v>
       </c>
       <c r="E64" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F64" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="I64" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B65">
         <v>4.7</v>
       </c>
       <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>344</v>
+        <v>831238</v>
+      </c>
+      <c r="D65" t="s">
+        <v>350</v>
       </c>
       <c r="E65" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F65" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="I65" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B66">
         <v>4.3</v>
       </c>
       <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>121</v>
+        <v>891167</v>
+      </c>
+      <c r="D66" t="s">
+        <v>125</v>
       </c>
       <c r="E66" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F66" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="I66" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B67">
         <v>4.5</v>
       </c>
       <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>355</v>
+        <v>720081</v>
+      </c>
+      <c r="D67" t="s">
+        <v>361</v>
       </c>
       <c r="E67" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F67" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="I67" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B68">
         <v>4.3</v>
       </c>
       <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>361</v>
+        <v>207024</v>
+      </c>
+      <c r="D68" t="s">
+        <v>367</v>
       </c>
       <c r="E68" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F68" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="G68">
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="I68" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B69">
         <v>4.3</v>
       </c>
       <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>367</v>
+        <v>299035</v>
+      </c>
+      <c r="D69" t="s">
+        <v>373</v>
       </c>
       <c r="E69" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F69" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="I69" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B70">
         <v>4.4000000000000004</v>
       </c>
       <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>373</v>
+        <v>196733</v>
+      </c>
+      <c r="D70" t="s">
+        <v>379</v>
       </c>
       <c r="E70" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F70" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="I70" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B71">
         <v>4.5999999999999996</v>
       </c>
       <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>379</v>
+        <v>831890</v>
+      </c>
+      <c r="D71" t="s">
+        <v>385</v>
       </c>
       <c r="E71" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F71" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="I71" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B72">
         <v>4.4000000000000004</v>
       </c>
       <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>121</v>
+        <v>128087</v>
+      </c>
+      <c r="D72" t="s">
+        <v>125</v>
       </c>
       <c r="E72" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F72" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="I72" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B73">
         <v>4.7</v>
       </c>
       <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>142</v>
+        <v>266340</v>
+      </c>
+      <c r="D73" t="s">
+        <v>147</v>
       </c>
       <c r="E73" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F73" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="I73" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B74">
         <v>4</v>
       </c>
       <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>121</v>
+        <v>459627</v>
+      </c>
+      <c r="D74" t="s">
+        <v>125</v>
       </c>
       <c r="E74" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F74" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="I74" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B75">
         <v>4.5</v>
       </c>
       <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>400</v>
+        <v>653321</v>
+      </c>
+      <c r="D75" t="s">
+        <v>406</v>
       </c>
       <c r="E75" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F75" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="I75" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B76">
         <v>4</v>
       </c>
       <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>121</v>
+        <v>805735</v>
+      </c>
+      <c r="D76" t="s">
+        <v>125</v>
       </c>
       <c r="E76" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F76" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="I76" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B77">
         <v>4.5999999999999996</v>
       </c>
       <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>411</v>
+        <v>970705</v>
+      </c>
+      <c r="D77" t="s">
+        <v>417</v>
       </c>
       <c r="E77" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F77" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="I77" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B78">
         <v>4.8</v>
       </c>
       <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>239</v>
+        <v>697189</v>
+      </c>
+      <c r="D78" t="s">
+        <v>245</v>
       </c>
       <c r="E78" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="F78" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="I78" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B79">
         <v>4.7</v>
       </c>
       <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>373</v>
+        <v>711495</v>
+      </c>
+      <c r="D79" t="s">
+        <v>379</v>
       </c>
       <c r="E79" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F79" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="I79" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B80">
         <v>4.3</v>
       </c>
       <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>427</v>
+        <v>342528</v>
+      </c>
+      <c r="D80" t="s">
+        <v>433</v>
       </c>
       <c r="E80" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F80" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="I80" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B81">
         <v>4.8</v>
       </c>
       <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>433</v>
+        <v>191771</v>
+      </c>
+      <c r="D81" t="s">
+        <v>439</v>
       </c>
       <c r="E81" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="F81" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="I81" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B82">
         <v>4.2</v>
       </c>
       <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>439</v>
+        <v>196623</v>
+      </c>
+      <c r="D82" t="s">
+        <v>445</v>
       </c>
       <c r="E82" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="F82" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="I82" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B83">
         <v>4.4000000000000004</v>
       </c>
       <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>445</v>
+        <v>331044</v>
+      </c>
+      <c r="D83" t="s">
+        <v>451</v>
       </c>
       <c r="E83" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="F83" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="I83" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B84">
         <v>4.7</v>
       </c>
       <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>451</v>
+        <v>229438</v>
+      </c>
+      <c r="D84" t="s">
+        <v>457</v>
       </c>
       <c r="E84" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="F84" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="I84" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B85">
         <v>4.8</v>
       </c>
       <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>142</v>
+        <v>152774</v>
+      </c>
+      <c r="D85" t="s">
+        <v>147</v>
       </c>
       <c r="E85" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="F85" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="I85" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B86">
         <v>4.7</v>
       </c>
       <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>462</v>
+        <v>106188</v>
+      </c>
+      <c r="D86" t="s">
+        <v>468</v>
       </c>
       <c r="E86" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F86" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="I86" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B87">
         <v>4.9000000000000004</v>
       </c>
       <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>142</v>
+        <v>776089</v>
+      </c>
+      <c r="D87" t="s">
+        <v>147</v>
       </c>
       <c r="E87" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F87" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="I87" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B88">
         <v>4.5</v>
       </c>
       <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>439</v>
+        <v>929604</v>
+      </c>
+      <c r="D88" t="s">
+        <v>445</v>
       </c>
       <c r="E88" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="F88" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="I88" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B89">
         <v>4.7</v>
       </c>
       <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>142</v>
+        <v>739809</v>
+      </c>
+      <c r="D89" t="s">
+        <v>147</v>
       </c>
       <c r="E89" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F89" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="I89" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B90">
         <v>4.5999999999999996</v>
       </c>
       <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>142</v>
+        <v>360880</v>
+      </c>
+      <c r="D90" t="s">
+        <v>147</v>
       </c>
       <c r="E90" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="F90" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="I90" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B91">
         <v>4.7</v>
       </c>
       <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>245</v>
+        <v>152392</v>
+      </c>
+      <c r="D91" t="s">
+        <v>251</v>
       </c>
       <c r="E91" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="F91" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="I91" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B92">
         <v>4.7</v>
       </c>
       <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>493</v>
+        <v>844639</v>
+      </c>
+      <c r="D92" t="s">
+        <v>499</v>
       </c>
       <c r="E92" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F92" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="I92" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B93">
         <v>4.5999999999999996</v>
       </c>
       <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>245</v>
+        <v>925873</v>
+      </c>
+      <c r="D93" t="s">
+        <v>251</v>
       </c>
       <c r="E93" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="F93" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="I93" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B94">
         <v>4.7</v>
       </c>
       <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>504</v>
+        <v>676421</v>
+      </c>
+      <c r="D94" t="s">
+        <v>510</v>
       </c>
       <c r="E94" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="F94" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="I94" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B95">
         <v>4</v>
       </c>
       <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>142</v>
+        <v>545412</v>
+      </c>
+      <c r="D95" t="s">
+        <v>147</v>
       </c>
       <c r="E95" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="F95" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="I95" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B96">
         <v>4.5</v>
       </c>
       <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96" s="3" t="s">
+        <v>289564</v>
+      </c>
+      <c r="D96" t="s">
         <v>27</v>
       </c>
       <c r="E96" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="F96" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="I96" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B97">
         <v>4.5999999999999996</v>
       </c>
       <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>306</v>
+        <v>129727</v>
+      </c>
+      <c r="D97" t="s">
+        <v>312</v>
       </c>
       <c r="E97" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="F97" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="I97" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B98">
         <v>4.5999999999999996</v>
       </c>
       <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>493</v>
+        <v>723599</v>
+      </c>
+      <c r="D98" t="s">
+        <v>499</v>
       </c>
       <c r="E98" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="F98" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="I98" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B99">
         <v>4.5</v>
       </c>
       <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>306</v>
+        <v>528752</v>
+      </c>
+      <c r="D99" t="s">
+        <v>312</v>
       </c>
       <c r="E99" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="F99" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="I99" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B100">
         <v>4.7</v>
       </c>
       <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>373</v>
+        <v>820574</v>
+      </c>
+      <c r="D100" t="s">
+        <v>379</v>
       </c>
       <c r="E100" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="F100" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="I100" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B101">
         <v>4.7</v>
       </c>
       <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>373</v>
+        <v>265387</v>
+      </c>
+      <c r="D101" t="s">
+        <v>379</v>
       </c>
       <c r="E101" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="F101" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="I101" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B102">
         <v>4.7</v>
       </c>
       <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>427</v>
+        <v>958609</v>
+      </c>
+      <c r="D102" t="s">
+        <v>433</v>
       </c>
       <c r="E102" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="F102" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="I102" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B103">
         <v>4.5999999999999996</v>
       </c>
       <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>550</v>
+        <v>770170</v>
+      </c>
+      <c r="D103" t="s">
+        <v>556</v>
       </c>
       <c r="E103" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="F103" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="I103" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B104">
         <v>4.5999999999999996</v>
       </c>
       <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>556</v>
+        <v>615414</v>
+      </c>
+      <c r="D104" t="s">
+        <v>562</v>
       </c>
       <c r="E104" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="F104" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="I104" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B105">
         <v>4.5999999999999996</v>
       </c>
       <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>504</v>
+        <v>615371</v>
+      </c>
+      <c r="D105" t="s">
+        <v>510</v>
       </c>
       <c r="E105" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="F105" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="I105" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="B106">
         <v>4.5</v>
       </c>
       <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>239</v>
+        <v>452231</v>
+      </c>
+      <c r="D106" t="s">
+        <v>245</v>
       </c>
       <c r="E106" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="F106" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="I106" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B107">
         <v>4.5999999999999996</v>
       </c>
       <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>373</v>
+        <v>188547</v>
+      </c>
+      <c r="D107" t="s">
+        <v>379</v>
       </c>
       <c r="E107" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="F107" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="I107" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B108">
         <v>4.4000000000000004</v>
       </c>
       <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>373</v>
+        <v>213420</v>
+      </c>
+      <c r="D108" t="s">
+        <v>379</v>
       </c>
       <c r="E108" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="F108" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="I108" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B109">
         <v>4.0999999999999996</v>
       </c>
       <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>373</v>
+        <v>335098</v>
+      </c>
+      <c r="D109" t="s">
+        <v>379</v>
       </c>
       <c r="E109" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="F109" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="I109" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B110">
         <v>4.7</v>
       </c>
       <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>411</v>
+        <v>572919</v>
+      </c>
+      <c r="D110" t="s">
+        <v>417</v>
       </c>
       <c r="E110" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="F110" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="I110" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B111">
         <v>4.5999999999999996</v>
       </c>
       <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>400</v>
+        <v>806175</v>
+      </c>
+      <c r="D111" t="s">
+        <v>406</v>
       </c>
       <c r="E111" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="F111" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="I111" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="B112">
         <v>4.7</v>
       </c>
       <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>245</v>
+        <v>859308</v>
+      </c>
+      <c r="D112" t="s">
+        <v>251</v>
       </c>
       <c r="E112" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="F112" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="I112" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B113">
         <v>4.8</v>
       </c>
       <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>142</v>
+        <v>260289</v>
+      </c>
+      <c r="D113" t="s">
+        <v>147</v>
       </c>
       <c r="E113" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="F113" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="I113" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="B114">
         <v>4.2</v>
       </c>
       <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>142</v>
+        <v>672514</v>
+      </c>
+      <c r="D114" t="s">
+        <v>147</v>
       </c>
       <c r="E114" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="F114" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="I114" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B115">
         <v>4.5999999999999996</v>
       </c>
       <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>439</v>
+        <v>228552</v>
+      </c>
+      <c r="D115" t="s">
+        <v>445</v>
       </c>
       <c r="E115" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="F115" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="I115" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="B116">
         <v>4.2</v>
       </c>
       <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>617</v>
+        <v>132006</v>
+      </c>
+      <c r="D116" t="s">
+        <v>623</v>
       </c>
       <c r="E116" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="F116" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="I116" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="B117">
         <v>4.5999999999999996</v>
       </c>
       <c r="C117">
-        <v>0</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>623</v>
+        <v>213192</v>
+      </c>
+      <c r="D117" t="s">
+        <v>629</v>
       </c>
       <c r="E117" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="F117" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="I117" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="B118">
         <v>4.5999999999999996</v>
       </c>
       <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>142</v>
+        <v>723399</v>
+      </c>
+      <c r="D118" t="s">
+        <v>147</v>
       </c>
       <c r="E118" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="F118" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="I118" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B119">
         <v>4.7</v>
       </c>
       <c r="C119">
-        <v>0</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>462</v>
+        <v>750637</v>
+      </c>
+      <c r="D119" t="s">
+        <v>468</v>
       </c>
       <c r="E119" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="F119" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="I119" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="B120">
         <v>4.7</v>
       </c>
       <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>142</v>
+        <v>221021</v>
+      </c>
+      <c r="D120" t="s">
+        <v>147</v>
       </c>
       <c r="E120" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="F120" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="I120" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="B121">
         <v>4.5</v>
       </c>
       <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>142</v>
+        <v>691699</v>
+      </c>
+      <c r="D121" t="s">
+        <v>147</v>
       </c>
       <c r="E121" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="F121" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="I121" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B122">
         <v>4.4000000000000004</v>
       </c>
       <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>649</v>
+        <v>112832</v>
+      </c>
+      <c r="D122" t="s">
+        <v>655</v>
       </c>
       <c r="E122" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="F122" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="I122" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="B123">
         <v>4.5999999999999996</v>
       </c>
       <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>142</v>
+        <v>879950</v>
+      </c>
+      <c r="D123" t="s">
+        <v>147</v>
       </c>
       <c r="E123" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="F123" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="I123" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="B124">
         <v>4.5999999999999996</v>
       </c>
       <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>462</v>
+        <v>625673</v>
+      </c>
+      <c r="D124" t="s">
+        <v>468</v>
       </c>
       <c r="E124" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="F124" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="I124" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B125">
         <v>4.8</v>
       </c>
       <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>142</v>
+        <v>489599</v>
+      </c>
+      <c r="D125" t="s">
+        <v>147</v>
       </c>
       <c r="E125" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F125" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="I125" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="B126">
         <v>4.5999999999999996</v>
       </c>
       <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>142</v>
+        <v>631691</v>
+      </c>
+      <c r="D126" t="s">
+        <v>147</v>
       </c>
       <c r="E126" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="F126" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="I126" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="B127">
         <v>4.9000000000000004</v>
       </c>
       <c r="C127">
-        <v>3</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>142</v>
+        <v>204226</v>
+      </c>
+      <c r="D127" t="s">
+        <v>147</v>
       </c>
       <c r="E127" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="F127" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="G127">
         <v>3</v>
       </c>
       <c r="H127" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="I127" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="B128">
         <v>4.5999999999999996</v>
       </c>
       <c r="C128">
-        <v>3</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>373</v>
+        <v>824345</v>
+      </c>
+      <c r="D128" t="s">
+        <v>379</v>
       </c>
       <c r="E128" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="F128" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="G128">
         <v>3</v>
       </c>
       <c r="H128" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="I128" t="s">
         <v>25</v>
@@ -7167,1771 +7159,1771 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="B129">
         <v>4.8</v>
       </c>
       <c r="C129">
-        <v>3</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>142</v>
+        <v>715835</v>
+      </c>
+      <c r="D129" t="s">
+        <v>147</v>
       </c>
       <c r="E129" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="F129" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="G129">
         <v>3</v>
       </c>
       <c r="H129" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="I129" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="B130">
         <v>4.3</v>
       </c>
       <c r="C130">
-        <v>3</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>689</v>
+        <v>957964</v>
+      </c>
+      <c r="D130" t="s">
+        <v>695</v>
       </c>
       <c r="E130" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F130" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="G130">
         <v>3</v>
       </c>
       <c r="H130" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="I130" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="B131">
         <v>4.8</v>
       </c>
       <c r="C131">
-        <v>3</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>142</v>
+        <v>450480</v>
+      </c>
+      <c r="D131" t="s">
+        <v>147</v>
       </c>
       <c r="E131" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="F131" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="G131">
         <v>3</v>
       </c>
       <c r="H131" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="I131" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="B132">
         <v>4.5999999999999996</v>
       </c>
       <c r="C132">
-        <v>3</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>142</v>
+        <v>930187</v>
+      </c>
+      <c r="D132" t="s">
+        <v>147</v>
       </c>
       <c r="E132" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="F132" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="G132">
         <v>3</v>
       </c>
       <c r="H132" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="I132" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="B133">
         <v>4.4000000000000004</v>
       </c>
       <c r="C133">
-        <v>3</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>705</v>
+        <v>467581</v>
+      </c>
+      <c r="D133" t="s">
+        <v>711</v>
       </c>
       <c r="E133" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="F133" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="G133">
         <v>3</v>
       </c>
       <c r="H133" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="I133" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="B134">
         <v>4.4000000000000004</v>
       </c>
       <c r="C134">
-        <v>3</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>142</v>
+        <v>366333</v>
+      </c>
+      <c r="D134" t="s">
+        <v>147</v>
       </c>
       <c r="E134" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="F134" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="G134">
         <v>3</v>
       </c>
       <c r="H134" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="I134" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="B135">
         <v>4.5</v>
       </c>
       <c r="C135">
-        <v>3</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>142</v>
+        <v>992964</v>
+      </c>
+      <c r="D135" t="s">
+        <v>147</v>
       </c>
       <c r="E135" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="F135" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="G135">
         <v>3</v>
       </c>
       <c r="H135" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="I135" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="B136">
         <v>4.5</v>
       </c>
       <c r="C136">
-        <v>3</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>142</v>
+        <v>962195</v>
+      </c>
+      <c r="D136" t="s">
+        <v>147</v>
       </c>
       <c r="E136" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="F136" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="G136">
         <v>3</v>
       </c>
       <c r="H136" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="I136" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="B137">
         <v>4.4000000000000004</v>
       </c>
       <c r="C137">
-        <v>3</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>142</v>
+        <v>126399</v>
+      </c>
+      <c r="D137" t="s">
+        <v>147</v>
       </c>
       <c r="E137" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="F137" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="G137">
         <v>3</v>
       </c>
       <c r="H137" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="I137" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="B138">
         <v>4.2</v>
       </c>
       <c r="C138">
-        <v>3</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>142</v>
+        <v>598162</v>
+      </c>
+      <c r="D138" t="s">
+        <v>147</v>
       </c>
       <c r="E138" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="F138" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="G138">
         <v>3</v>
       </c>
       <c r="H138" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="I138" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="B139">
         <v>4.9000000000000004</v>
       </c>
       <c r="C139">
-        <v>3</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>142</v>
+        <v>443705</v>
+      </c>
+      <c r="D139" t="s">
+        <v>147</v>
       </c>
       <c r="E139" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="F139" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="G139">
         <v>3</v>
       </c>
       <c r="H139" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="I139" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="B140">
         <v>4.5</v>
       </c>
       <c r="C140">
-        <v>3</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>142</v>
+        <v>197961</v>
+      </c>
+      <c r="D140" t="s">
+        <v>147</v>
       </c>
       <c r="E140" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="F140" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="G140">
         <v>3</v>
       </c>
       <c r="H140" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="I140" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="B141">
         <v>4.8</v>
       </c>
       <c r="C141">
-        <v>3</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>746</v>
+        <v>755016</v>
+      </c>
+      <c r="D141" t="s">
+        <v>752</v>
       </c>
       <c r="E141" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="F141" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="G141">
         <v>3</v>
       </c>
       <c r="H141" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="I141" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="B142">
         <v>4.7</v>
       </c>
       <c r="C142">
-        <v>3</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>142</v>
+        <v>708729</v>
+      </c>
+      <c r="D142" t="s">
+        <v>147</v>
       </c>
       <c r="E142" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="F142" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="G142">
         <v>3</v>
       </c>
       <c r="H142" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="I142" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="B143">
         <v>4.3</v>
       </c>
       <c r="C143">
-        <v>3</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>757</v>
+        <v>891707</v>
+      </c>
+      <c r="D143" t="s">
+        <v>763</v>
       </c>
       <c r="E143" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="F143" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="G143">
         <v>3</v>
       </c>
       <c r="H143" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="I143" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="B144">
         <v>4.8</v>
       </c>
       <c r="C144">
-        <v>3</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>142</v>
+        <v>516585</v>
+      </c>
+      <c r="D144" t="s">
+        <v>147</v>
       </c>
       <c r="E144" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="F144" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="G144">
         <v>3</v>
       </c>
       <c r="H144" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="I144" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="B145">
         <v>4.7</v>
       </c>
       <c r="C145">
-        <v>3</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>768</v>
+        <v>897781</v>
+      </c>
+      <c r="D145" t="s">
+        <v>774</v>
       </c>
       <c r="E145" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="F145" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="G145">
         <v>3</v>
       </c>
       <c r="H145" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="I145" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="B146">
         <v>4.8</v>
       </c>
       <c r="C146">
-        <v>3</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>142</v>
+        <v>148271</v>
+      </c>
+      <c r="D146" t="s">
+        <v>147</v>
       </c>
       <c r="E146" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="F146" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="G146">
         <v>3</v>
       </c>
       <c r="H146" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="I146" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="B147">
         <v>4.5999999999999996</v>
       </c>
       <c r="C147">
-        <v>3</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>779</v>
+        <v>927834</v>
+      </c>
+      <c r="D147" t="s">
+        <v>785</v>
       </c>
       <c r="E147" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="F147" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="G147">
         <v>3</v>
       </c>
       <c r="H147" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="I147" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="B148">
         <v>4.8</v>
       </c>
       <c r="C148">
-        <v>3</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>142</v>
+        <v>322220</v>
+      </c>
+      <c r="D148" t="s">
+        <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="F148" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="G148">
         <v>3</v>
       </c>
       <c r="H148" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="I148" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="B149">
         <v>4.8</v>
       </c>
       <c r="C149">
-        <v>3</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>142</v>
+        <v>563837</v>
+      </c>
+      <c r="D149" t="s">
+        <v>147</v>
       </c>
       <c r="E149" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="F149" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="G149">
         <v>3</v>
       </c>
       <c r="H149" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="I149" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="B150">
         <v>4.8</v>
       </c>
       <c r="C150">
-        <v>3</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>768</v>
+        <v>554262</v>
+      </c>
+      <c r="D150" t="s">
+        <v>774</v>
       </c>
       <c r="E150" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="F150" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="G150">
         <v>3</v>
       </c>
       <c r="H150" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="I150" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="B151">
         <v>4.8</v>
       </c>
       <c r="C151">
-        <v>3</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>239</v>
+        <v>951668</v>
+      </c>
+      <c r="D151" t="s">
+        <v>245</v>
       </c>
       <c r="E151" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="F151" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="G151">
         <v>3</v>
       </c>
       <c r="H151" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="I151" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="B152">
         <v>4.8</v>
       </c>
       <c r="C152">
-        <v>3</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>805</v>
+        <v>537829</v>
+      </c>
+      <c r="D152" t="s">
+        <v>811</v>
       </c>
       <c r="E152" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="F152" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="G152">
         <v>3</v>
       </c>
       <c r="H152" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="I152" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="B153">
         <v>4.7</v>
       </c>
       <c r="C153">
-        <v>3</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>811</v>
+        <v>883002</v>
+      </c>
+      <c r="D153" t="s">
+        <v>817</v>
       </c>
       <c r="E153" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="F153" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="G153">
         <v>3</v>
       </c>
       <c r="H153" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="I153" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="B154">
         <v>4.4000000000000004</v>
       </c>
       <c r="C154">
-        <v>3</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>142</v>
+        <v>917914</v>
+      </c>
+      <c r="D154" t="s">
+        <v>147</v>
       </c>
       <c r="E154" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="F154" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="G154">
         <v>3</v>
       </c>
       <c r="H154" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="I154" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="B155">
         <v>4.5999999999999996</v>
       </c>
       <c r="C155">
-        <v>3</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>142</v>
+        <v>227804</v>
+      </c>
+      <c r="D155" t="s">
+        <v>147</v>
       </c>
       <c r="E155" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="F155" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="G155">
         <v>3</v>
       </c>
       <c r="H155" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="I155" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="B156">
         <v>4.7</v>
       </c>
       <c r="C156">
-        <v>3</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>142</v>
+        <v>928073</v>
+      </c>
+      <c r="D156" t="s">
+        <v>147</v>
       </c>
       <c r="E156" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="F156" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="G156">
         <v>3</v>
       </c>
       <c r="H156" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="I156" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="B157">
         <v>4.8</v>
       </c>
       <c r="C157">
-        <v>3</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>142</v>
+        <v>721688</v>
+      </c>
+      <c r="D157" t="s">
+        <v>147</v>
       </c>
       <c r="E157" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="F157" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="G157">
         <v>3</v>
       </c>
       <c r="H157" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="I157" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="B158">
         <v>4.9000000000000004</v>
       </c>
       <c r="C158">
-        <v>3</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>837</v>
+        <v>341412</v>
+      </c>
+      <c r="D158" t="s">
+        <v>843</v>
       </c>
       <c r="E158" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="F158" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="G158">
         <v>3</v>
       </c>
       <c r="H158" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="I158" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="B159">
         <v>4.7</v>
       </c>
       <c r="C159">
-        <v>3</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>142</v>
+        <v>207141</v>
+      </c>
+      <c r="D159" t="s">
+        <v>147</v>
       </c>
       <c r="E159" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="F159" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="G159">
         <v>3</v>
       </c>
       <c r="H159" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="I159" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="B160">
         <v>4.7</v>
       </c>
       <c r="C160">
-        <v>3</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>848</v>
+        <v>960907</v>
+      </c>
+      <c r="D160" t="s">
+        <v>854</v>
       </c>
       <c r="E160" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="F160" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="G160">
         <v>3</v>
       </c>
       <c r="H160" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="I160" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="B161">
         <v>4.5999999999999996</v>
       </c>
       <c r="C161">
-        <v>3</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>318</v>
+        <v>693072</v>
+      </c>
+      <c r="D161" t="s">
+        <v>324</v>
       </c>
       <c r="E161" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="F161" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="G161">
         <v>3</v>
       </c>
       <c r="H161" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="I161" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="B162">
         <v>4.7</v>
       </c>
       <c r="C162">
-        <v>3</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>859</v>
+        <v>463612</v>
+      </c>
+      <c r="D162" t="s">
+        <v>865</v>
       </c>
       <c r="E162" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="F162" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="G162">
         <v>3</v>
       </c>
       <c r="H162" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="I162" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="B163">
         <v>4.7</v>
       </c>
       <c r="C163">
-        <v>3</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>462</v>
+        <v>303350</v>
+      </c>
+      <c r="D163" t="s">
+        <v>468</v>
       </c>
       <c r="E163" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="F163" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="G163">
         <v>3</v>
       </c>
       <c r="H163" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="I163" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="B164">
         <v>4.5999999999999996</v>
       </c>
       <c r="C164">
-        <v>3</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>870</v>
+        <v>104738</v>
+      </c>
+      <c r="D164" t="s">
+        <v>876</v>
       </c>
       <c r="E164" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="F164" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="G164">
         <v>3</v>
       </c>
       <c r="H164" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="I164" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="B165">
         <v>4.7</v>
       </c>
       <c r="C165">
-        <v>3</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>142</v>
+        <v>274391</v>
+      </c>
+      <c r="D165" t="s">
+        <v>147</v>
       </c>
       <c r="E165" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="F165" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="G165">
         <v>3</v>
       </c>
       <c r="H165" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="I165" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="B166">
         <v>4.7</v>
       </c>
       <c r="C166">
-        <v>3</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>439</v>
+        <v>568229</v>
+      </c>
+      <c r="D166" t="s">
+        <v>445</v>
       </c>
       <c r="E166" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="F166" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="G166">
         <v>3</v>
       </c>
       <c r="H166" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="I166" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="B167">
         <v>4.3</v>
       </c>
       <c r="C167">
-        <v>3</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>886</v>
+        <v>251013</v>
+      </c>
+      <c r="D167" t="s">
+        <v>892</v>
       </c>
       <c r="E167" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="F167" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="G167">
         <v>3</v>
       </c>
       <c r="H167" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="I167" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="B168">
         <v>4.5999999999999996</v>
       </c>
       <c r="C168">
-        <v>3</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>892</v>
+        <v>299185</v>
+      </c>
+      <c r="D168" t="s">
+        <v>898</v>
       </c>
       <c r="E168" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="F168" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="G168">
         <v>3</v>
       </c>
       <c r="H168" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="I168" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="B169">
         <v>4.5999999999999996</v>
       </c>
       <c r="C169">
-        <v>3</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>400</v>
+        <v>470793</v>
+      </c>
+      <c r="D169" t="s">
+        <v>406</v>
       </c>
       <c r="E169" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="F169" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="G169">
         <v>3</v>
       </c>
       <c r="H169" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="I169" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="B170">
         <v>4.7</v>
       </c>
       <c r="C170">
-        <v>3</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>427</v>
+        <v>133470</v>
+      </c>
+      <c r="D170" t="s">
+        <v>433</v>
       </c>
       <c r="E170" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="F170" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="G170">
         <v>3</v>
       </c>
       <c r="H170" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="I170" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="B171">
         <v>4.5</v>
       </c>
       <c r="C171">
-        <v>3</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>439</v>
+        <v>228137</v>
+      </c>
+      <c r="D171" t="s">
+        <v>445</v>
       </c>
       <c r="E171" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="F171" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="G171">
         <v>3</v>
       </c>
       <c r="H171" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="I171" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="B172">
         <v>4.4000000000000004</v>
       </c>
       <c r="C172">
-        <v>3</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>870</v>
+        <v>246243</v>
+      </c>
+      <c r="D172" t="s">
+        <v>876</v>
       </c>
       <c r="E172" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="F172" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="G172">
         <v>3</v>
       </c>
       <c r="H172" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="I172" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="B173">
         <v>4.5</v>
       </c>
       <c r="C173">
-        <v>3</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>142</v>
+        <v>562184</v>
+      </c>
+      <c r="D173" t="s">
+        <v>147</v>
       </c>
       <c r="E173" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="F173" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="G173">
         <v>3</v>
       </c>
       <c r="H173" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="I173" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="B174">
         <v>4.5999999999999996</v>
       </c>
       <c r="C174">
-        <v>3</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>923</v>
+        <v>306487</v>
+      </c>
+      <c r="D174" t="s">
+        <v>929</v>
       </c>
       <c r="E174" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="F174" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="G174">
         <v>3</v>
       </c>
       <c r="H174" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="I174" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="B175">
         <v>4.5</v>
       </c>
       <c r="C175">
-        <v>3</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>462</v>
+        <v>606707</v>
+      </c>
+      <c r="D175" t="s">
+        <v>468</v>
       </c>
       <c r="E175" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="F175" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="G175">
         <v>3</v>
       </c>
       <c r="H175" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="I175" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="B176">
         <v>4.4000000000000004</v>
       </c>
       <c r="C176">
-        <v>3</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>892</v>
+        <v>498739</v>
+      </c>
+      <c r="D176" t="s">
+        <v>898</v>
       </c>
       <c r="E176" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="F176" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="G176">
         <v>3</v>
       </c>
       <c r="H176" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="I176" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="B177">
         <v>4.5</v>
       </c>
       <c r="C177">
-        <v>3</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>439</v>
+        <v>934613</v>
+      </c>
+      <c r="D177" t="s">
+        <v>445</v>
       </c>
       <c r="E177" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="F177" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="G177">
         <v>3</v>
       </c>
       <c r="H177" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="I177" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="B178">
         <v>4.5999999999999996</v>
       </c>
       <c r="C178">
-        <v>3</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>344</v>
+        <v>637717</v>
+      </c>
+      <c r="D178" t="s">
+        <v>350</v>
       </c>
       <c r="E178" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="F178" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="G178">
         <v>3</v>
       </c>
       <c r="H178" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="I178" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="B179">
         <v>4.7</v>
       </c>
       <c r="C179">
-        <v>3</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>142</v>
+        <v>939682</v>
+      </c>
+      <c r="D179" t="s">
+        <v>147</v>
       </c>
       <c r="E179" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="F179" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="G179">
         <v>3</v>
       </c>
       <c r="H179" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="I179" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="B180">
         <v>4.5999999999999996</v>
       </c>
       <c r="C180">
-        <v>3</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>344</v>
+        <v>480760</v>
+      </c>
+      <c r="D180" t="s">
+        <v>350</v>
       </c>
       <c r="E180" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="F180" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="G180">
         <v>3</v>
       </c>
       <c r="H180" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="I180" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="B181">
         <v>4.3</v>
       </c>
       <c r="C181">
-        <v>3</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>439</v>
+        <v>288822</v>
+      </c>
+      <c r="D181" t="s">
+        <v>445</v>
       </c>
       <c r="E181" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="F181" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="G181">
         <v>3</v>
       </c>
       <c r="H181" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="I181" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="B182">
         <v>4.8</v>
       </c>
       <c r="C182">
-        <v>3</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>142</v>
+        <v>931664</v>
+      </c>
+      <c r="D182" t="s">
+        <v>147</v>
       </c>
       <c r="E182" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="F182" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="G182">
         <v>3</v>
       </c>
       <c r="H182" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="I182" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="B183">
         <v>4.5999999999999996</v>
       </c>
       <c r="C183">
-        <v>3</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>142</v>
+        <v>860072</v>
+      </c>
+      <c r="D183" t="s">
+        <v>147</v>
       </c>
       <c r="E183" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="F183" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="G183">
         <v>3</v>
       </c>
       <c r="H183" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="I183" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="B184">
         <v>4.9000000000000004</v>
       </c>
       <c r="C184">
-        <v>3</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>142</v>
+        <v>661463</v>
+      </c>
+      <c r="D184" t="s">
+        <v>147</v>
       </c>
       <c r="E184" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="F184" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="G184">
         <v>3</v>
       </c>
       <c r="H184" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="I184" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="B185">
         <v>4.5</v>
       </c>
       <c r="C185">
-        <v>3</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>439</v>
+        <v>871687</v>
+      </c>
+      <c r="D185" t="s">
+        <v>445</v>
       </c>
       <c r="E185" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="F185" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="G185">
         <v>3</v>
       </c>
       <c r="H185" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="I185" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="B186">
         <v>4.3</v>
       </c>
       <c r="C186">
-        <v>3</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>344</v>
+        <v>265458</v>
+      </c>
+      <c r="D186" t="s">
+        <v>350</v>
       </c>
       <c r="E186" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="F186" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="G186">
         <v>3</v>
       </c>
       <c r="H186" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="I186" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="B187">
         <v>4.5</v>
       </c>
       <c r="C187">
-        <v>3</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>344</v>
+        <v>505870</v>
+      </c>
+      <c r="D187" t="s">
+        <v>350</v>
       </c>
       <c r="E187" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="F187" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="G187">
         <v>3</v>
       </c>
       <c r="H187" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="I187" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="B188">
         <v>4.0999999999999996</v>
       </c>
       <c r="C188">
-        <v>3</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>994</v>
+        <v>102220</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1000</v>
       </c>
       <c r="E188" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="F188" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="G188">
         <v>3</v>
       </c>
       <c r="H188" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="I188" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="B189">
         <v>4.5</v>
       </c>
       <c r="C189">
-        <v>3</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>142</v>
+        <v>821293</v>
+      </c>
+      <c r="D189" t="s">
+        <v>147</v>
       </c>
       <c r="E189" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="F189" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="G189">
         <v>3</v>
       </c>
       <c r="H189" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="I189" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/Recommendation/data/whole_data_cleaned.xlsx
+++ b/assets/data/Recommendation/data/whole_data_cleaned.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\wayou-lt\assets\data\Text Generation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\wayou-lt\assets\data\Recommendation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC37415-AAD4-4692-98CB-51742D68E40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCAB801-0FC6-413D-843A-F934ADDB64AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="15165" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="1009">
   <si>
     <t>name</t>
   </si>
@@ -521,24 +521,6 @@
   </si>
   <si>
     <t>40.99474202399425, 29.039204409442796</t>
-  </si>
-  <si>
-    <t>Dorock XL</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/dorockxl/</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Dorock+XL+Kad%C4%B1k%C3%B6y/@40.9897531,28.9508471,13z/data=!3m1!5s0x14cab8679a282c6d:0xfd588479cded1ce9!4m10!1m2!2m1!1sDorock+XL!3m6!1s0x14cab85d7dccd60b:0x84e2c8008eaf6d18!8m2!3d40.9897531!4d29.0229449!15sCglEb3JvY2sgWEwiA4gBAVoLIglkb3JvY2sgeGySAQxjb25jZXJ0X2hhbGzgAQA!16s%2Fg%2F11dylzv3m8?entry=ttu</t>
-  </si>
-  <si>
-    <t>Dorock XL is a popular live music venue and nightclub located in Kadıköy, known for its vibrant atmosphere and energetic performances. Guests can enjoy a variety of live music acts, including rock, jazz, blues, and electronic, performed by talented local and international artists. The nightclub's spacious dance floor and state-of-the-art sound system create an immersive experience for partygoers to dance the night away. With its eclectic lineup of events and dynamic ambiance, Dorock XL promises an unforgettable night of music and entertainment in Kadıköy.</t>
-  </si>
-  <si>
-    <t>40.987474576709864, 29.025974810980422</t>
   </si>
   <si>
     <t>Fil Bar</t>
@@ -3427,10 +3409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I189"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C189"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3453,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -3746,7 +3728,7 @@
         <v>124157</v>
       </c>
       <c r="D11" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="E11" t="s">
         <v>59</v>
@@ -3804,7 +3786,7 @@
         <v>131564</v>
       </c>
       <c r="D13" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="E13" t="s">
         <v>70</v>
@@ -4036,7 +4018,7 @@
         <v>898991</v>
       </c>
       <c r="D21" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="E21" t="s">
         <v>115</v>
@@ -4065,7 +4047,7 @@
         <v>195027</v>
       </c>
       <c r="D22" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="E22" t="s">
         <v>120</v>
@@ -4320,390 +4302,390 @@
         <v>167</v>
       </c>
       <c r="B31">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="C31">
-        <v>744985</v>
-      </c>
-      <c r="D31" t="s">
+        <v>846545</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
         <v>168</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>169</v>
-      </c>
-      <c r="F31" t="s">
-        <v>170</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
       <c r="H31" t="s">
+        <v>170</v>
+      </c>
+      <c r="I31" t="s">
         <v>171</v>
-      </c>
-      <c r="I31" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B32">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="C32">
-        <v>846545</v>
+        <v>656298</v>
       </c>
       <c r="D32">
         <v>15</v>
       </c>
       <c r="E32" t="s">
+        <v>173</v>
+      </c>
+      <c r="F32" t="s">
         <v>174</v>
-      </c>
-      <c r="F32" t="s">
-        <v>175</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
       <c r="H32" t="s">
+        <v>175</v>
+      </c>
+      <c r="I32" t="s">
         <v>176</v>
-      </c>
-      <c r="I32" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B33">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="C33">
-        <v>656298</v>
+        <v>820326</v>
       </c>
       <c r="D33">
         <v>15</v>
       </c>
       <c r="E33" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" t="s">
         <v>179</v>
-      </c>
-      <c r="F33" t="s">
-        <v>180</v>
       </c>
       <c r="G33">
         <v>2</v>
       </c>
       <c r="H33" t="s">
+        <v>180</v>
+      </c>
+      <c r="I33" t="s">
         <v>181</v>
-      </c>
-      <c r="I33" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C34">
+        <v>479281</v>
+      </c>
+      <c r="D34">
+        <v>14.15</v>
+      </c>
+      <c r="E34" t="s">
         <v>183</v>
       </c>
-      <c r="B34">
-        <v>4.2</v>
-      </c>
-      <c r="C34">
-        <v>820326</v>
-      </c>
-      <c r="D34">
-        <v>15</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>184</v>
-      </c>
-      <c r="F34" t="s">
-        <v>185</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
       <c r="H34" t="s">
+        <v>185</v>
+      </c>
+      <c r="I34" t="s">
         <v>186</v>
-      </c>
-      <c r="I34" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B35">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="C35">
-        <v>479281</v>
+        <v>165264</v>
       </c>
       <c r="D35">
         <v>14.15</v>
       </c>
       <c r="E35" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" t="s">
         <v>189</v>
-      </c>
-      <c r="F35" t="s">
-        <v>190</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
       <c r="H35" t="s">
+        <v>190</v>
+      </c>
+      <c r="I35" t="s">
         <v>191</v>
-      </c>
-      <c r="I35" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B36">
         <v>4.7</v>
       </c>
       <c r="C36">
-        <v>165264</v>
+        <v>883675</v>
       </c>
       <c r="D36">
         <v>14.15</v>
       </c>
       <c r="E36" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" t="s">
         <v>194</v>
-      </c>
-      <c r="F36" t="s">
-        <v>195</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
       <c r="H36" t="s">
+        <v>195</v>
+      </c>
+      <c r="I36" t="s">
         <v>196</v>
-      </c>
-      <c r="I36" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37">
+        <v>4.3</v>
+      </c>
+      <c r="C37">
+        <v>161477</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
         <v>198</v>
       </c>
-      <c r="B37">
-        <v>4.7</v>
-      </c>
-      <c r="C37">
-        <v>883675</v>
-      </c>
-      <c r="D37">
-        <v>14.15</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>199</v>
-      </c>
-      <c r="F37" t="s">
-        <v>200</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
       <c r="H37" t="s">
+        <v>200</v>
+      </c>
+      <c r="I37" t="s">
         <v>201</v>
-      </c>
-      <c r="I37" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C38">
-        <v>161477</v>
+        <v>407442</v>
       </c>
       <c r="D38">
         <v>8</v>
       </c>
       <c r="E38" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38" t="s">
         <v>204</v>
-      </c>
-      <c r="F38" t="s">
-        <v>205</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
       <c r="H38" t="s">
+        <v>205</v>
+      </c>
+      <c r="I38" t="s">
         <v>206</v>
-      </c>
-      <c r="I38" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B39">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="C39">
-        <v>407442</v>
+        <v>775469</v>
       </c>
       <c r="D39">
         <v>8</v>
       </c>
       <c r="E39" t="s">
+        <v>208</v>
+      </c>
+      <c r="F39" t="s">
         <v>209</v>
-      </c>
-      <c r="F39" t="s">
-        <v>210</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
       <c r="H39" t="s">
+        <v>210</v>
+      </c>
+      <c r="I39" t="s">
         <v>211</v>
-      </c>
-      <c r="I39" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B40">
         <v>4.7</v>
       </c>
       <c r="C40">
-        <v>775469</v>
+        <v>616147</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E40" t="s">
+        <v>213</v>
+      </c>
+      <c r="F40" t="s">
         <v>214</v>
-      </c>
-      <c r="F40" t="s">
-        <v>215</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
       <c r="H40" t="s">
+        <v>215</v>
+      </c>
+      <c r="I40" t="s">
         <v>216</v>
-      </c>
-      <c r="I40" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B41">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C41">
-        <v>616147</v>
+        <v>958153</v>
       </c>
       <c r="D41">
         <v>22</v>
       </c>
       <c r="E41" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" t="s">
         <v>219</v>
-      </c>
-      <c r="F41" t="s">
-        <v>220</v>
       </c>
       <c r="G41">
         <v>2</v>
       </c>
       <c r="H41" t="s">
+        <v>220</v>
+      </c>
+      <c r="I41" t="s">
         <v>221</v>
-      </c>
-      <c r="I41" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B42">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C42">
-        <v>958153</v>
+        <v>507399</v>
       </c>
       <c r="D42">
         <v>22</v>
       </c>
       <c r="E42" t="s">
+        <v>223</v>
+      </c>
+      <c r="F42" t="s">
         <v>224</v>
-      </c>
-      <c r="F42" t="s">
-        <v>225</v>
       </c>
       <c r="G42">
         <v>2</v>
       </c>
       <c r="H42" t="s">
+        <v>225</v>
+      </c>
+      <c r="I42" t="s">
         <v>226</v>
-      </c>
-      <c r="I42" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B43">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>507399</v>
+        <v>201075</v>
       </c>
       <c r="D43">
         <v>22</v>
       </c>
       <c r="E43" t="s">
+        <v>228</v>
+      </c>
+      <c r="F43" t="s">
         <v>229</v>
-      </c>
-      <c r="F43" t="s">
-        <v>230</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
       <c r="H43" t="s">
+        <v>230</v>
+      </c>
+      <c r="I43" t="s">
         <v>231</v>
-      </c>
-      <c r="I43" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>232</v>
+      </c>
+      <c r="B44">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C44">
+        <v>704220</v>
+      </c>
+      <c r="D44" t="s">
         <v>233</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>201075</v>
-      </c>
-      <c r="D44">
-        <v>22</v>
       </c>
       <c r="E44" t="s">
         <v>234</v>
@@ -4726,10 +4708,10 @@
         <v>238</v>
       </c>
       <c r="B45">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="C45">
-        <v>704220</v>
+        <v>401221</v>
       </c>
       <c r="D45" t="s">
         <v>239</v>
@@ -4755,10 +4737,10 @@
         <v>244</v>
       </c>
       <c r="B46">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="C46">
-        <v>401221</v>
+        <v>286657</v>
       </c>
       <c r="D46" t="s">
         <v>245</v>
@@ -4770,7 +4752,7 @@
         <v>247</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="s">
         <v>248</v>
@@ -4784,42 +4766,42 @@
         <v>250</v>
       </c>
       <c r="B47">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C47">
-        <v>286657</v>
-      </c>
-      <c r="D47" t="s">
+        <v>965587</v>
+      </c>
+      <c r="D47">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="E47" t="s">
         <v>251</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>252</v>
-      </c>
-      <c r="F47" t="s">
-        <v>253</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47" t="s">
+        <v>253</v>
+      </c>
+      <c r="I47" t="s">
         <v>254</v>
-      </c>
-      <c r="I47" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48">
+        <v>4.7</v>
+      </c>
+      <c r="C48">
+        <v>331296</v>
+      </c>
+      <c r="D48" t="s">
         <v>256</v>
-      </c>
-      <c r="B48">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C48">
-        <v>965587</v>
-      </c>
-      <c r="D48">
-        <v>9.1199999999999992</v>
       </c>
       <c r="E48" t="s">
         <v>257</v>
@@ -4842,42 +4824,42 @@
         <v>261</v>
       </c>
       <c r="B49">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C49">
-        <v>331296</v>
-      </c>
-      <c r="D49" t="s">
+        <v>868833</v>
+      </c>
+      <c r="D49">
+        <v>1.5</v>
+      </c>
+      <c r="E49" t="s">
         <v>262</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>263</v>
-      </c>
-      <c r="F49" t="s">
-        <v>264</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49" t="s">
+        <v>264</v>
+      </c>
+      <c r="I49" t="s">
         <v>265</v>
-      </c>
-      <c r="I49" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>266</v>
+      </c>
+      <c r="B50">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C50">
+        <v>601061</v>
+      </c>
+      <c r="D50" t="s">
         <v>267</v>
-      </c>
-      <c r="B50">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C50">
-        <v>868833</v>
-      </c>
-      <c r="D50">
-        <v>1.5</v>
       </c>
       <c r="E50" t="s">
         <v>268</v>
@@ -4900,10 +4882,10 @@
         <v>272</v>
       </c>
       <c r="B51">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="C51">
-        <v>601061</v>
+        <v>769885</v>
       </c>
       <c r="D51" t="s">
         <v>273</v>
@@ -4929,71 +4911,71 @@
         <v>278</v>
       </c>
       <c r="B52">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C52">
-        <v>769885</v>
+        <v>275853</v>
       </c>
       <c r="D52" t="s">
+        <v>256</v>
+      </c>
+      <c r="E52" t="s">
         <v>279</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>280</v>
-      </c>
-      <c r="F52" t="s">
-        <v>281</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52" t="s">
+        <v>281</v>
+      </c>
+      <c r="I52" t="s">
         <v>282</v>
-      </c>
-      <c r="I52" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>283</v>
+      </c>
+      <c r="B53">
+        <v>4.7</v>
+      </c>
+      <c r="C53">
+        <v>140042</v>
+      </c>
+      <c r="D53" t="s">
+        <v>245</v>
+      </c>
+      <c r="E53" t="s">
         <v>284</v>
       </c>
-      <c r="B53">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C53">
-        <v>275853</v>
-      </c>
-      <c r="D53" t="s">
-        <v>262</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>285</v>
-      </c>
-      <c r="F53" t="s">
-        <v>286</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" t="s">
+        <v>286</v>
+      </c>
+      <c r="I53" t="s">
         <v>287</v>
-      </c>
-      <c r="I53" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>288</v>
+      </c>
+      <c r="B54">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C54">
+        <v>850483</v>
+      </c>
+      <c r="D54" t="s">
         <v>289</v>
-      </c>
-      <c r="B54">
-        <v>4.7</v>
-      </c>
-      <c r="C54">
-        <v>140042</v>
-      </c>
-      <c r="D54" t="s">
-        <v>251</v>
       </c>
       <c r="E54" t="s">
         <v>290</v>
@@ -5016,42 +4998,42 @@
         <v>294</v>
       </c>
       <c r="B55">
-        <v>4.5999999999999996</v>
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>850483</v>
+        <v>432515</v>
       </c>
       <c r="D55" t="s">
+        <v>239</v>
+      </c>
+      <c r="E55" t="s">
         <v>295</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>296</v>
-      </c>
-      <c r="F55" t="s">
-        <v>297</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55" t="s">
+        <v>297</v>
+      </c>
+      <c r="I55" t="s">
         <v>298</v>
-      </c>
-      <c r="I55" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>299</v>
+      </c>
+      <c r="B56">
+        <v>4.8</v>
+      </c>
+      <c r="C56">
+        <v>682423</v>
+      </c>
+      <c r="D56" t="s">
         <v>300</v>
-      </c>
-      <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="C56">
-        <v>432515</v>
-      </c>
-      <c r="D56" t="s">
-        <v>245</v>
       </c>
       <c r="E56" t="s">
         <v>301</v>
@@ -5074,10 +5056,10 @@
         <v>305</v>
       </c>
       <c r="B57">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C57">
-        <v>682423</v>
+        <v>424824</v>
       </c>
       <c r="D57" t="s">
         <v>306</v>
@@ -5103,10 +5085,10 @@
         <v>311</v>
       </c>
       <c r="B58">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C58">
-        <v>424824</v>
+        <v>375467</v>
       </c>
       <c r="D58" t="s">
         <v>312</v>
@@ -5132,10 +5114,10 @@
         <v>317</v>
       </c>
       <c r="B59">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="C59">
-        <v>375467</v>
+        <v>414821</v>
       </c>
       <c r="D59" t="s">
         <v>318</v>
@@ -5161,129 +5143,129 @@
         <v>323</v>
       </c>
       <c r="B60">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="C60">
-        <v>414821</v>
+        <v>496546</v>
       </c>
       <c r="D60" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
         <v>324</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>325</v>
-      </c>
-      <c r="F60" t="s">
-        <v>326</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60" t="s">
+        <v>326</v>
+      </c>
+      <c r="I60" t="s">
         <v>327</v>
-      </c>
-      <c r="I60" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>328</v>
+      </c>
+      <c r="B61">
+        <v>4.5</v>
+      </c>
+      <c r="C61">
+        <v>770256</v>
+      </c>
+      <c r="D61" t="s">
+        <v>233</v>
+      </c>
+      <c r="E61" t="s">
         <v>329</v>
       </c>
-      <c r="B61">
-        <v>4.2</v>
-      </c>
-      <c r="C61">
-        <v>496546</v>
-      </c>
-      <c r="D61" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>330</v>
-      </c>
-      <c r="F61" t="s">
-        <v>331</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61" t="s">
+        <v>331</v>
+      </c>
+      <c r="I61" t="s">
         <v>332</v>
-      </c>
-      <c r="I61" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>333</v>
+      </c>
+      <c r="B62">
+        <v>4.8</v>
+      </c>
+      <c r="C62">
+        <v>777046</v>
+      </c>
+      <c r="D62" t="s">
+        <v>147</v>
+      </c>
+      <c r="E62" t="s">
         <v>334</v>
       </c>
-      <c r="B62">
-        <v>4.5</v>
-      </c>
-      <c r="C62">
-        <v>770256</v>
-      </c>
-      <c r="D62" t="s">
-        <v>239</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>335</v>
-      </c>
-      <c r="F62" t="s">
-        <v>336</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62" t="s">
+        <v>336</v>
+      </c>
+      <c r="I62" t="s">
         <v>337</v>
-      </c>
-      <c r="I62" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B63">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C63">
-        <v>777046</v>
+        <v>130835</v>
       </c>
       <c r="D63" t="s">
         <v>147</v>
       </c>
       <c r="E63" t="s">
+        <v>339</v>
+      </c>
+      <c r="F63" t="s">
         <v>340</v>
-      </c>
-      <c r="F63" t="s">
-        <v>341</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63" t="s">
+        <v>341</v>
+      </c>
+      <c r="I63" t="s">
         <v>342</v>
-      </c>
-      <c r="I63" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>343</v>
+      </c>
+      <c r="B64">
+        <v>4.7</v>
+      </c>
+      <c r="C64">
+        <v>831238</v>
+      </c>
+      <c r="D64" t="s">
         <v>344</v>
-      </c>
-      <c r="B64">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C64">
-        <v>130835</v>
-      </c>
-      <c r="D64" t="s">
-        <v>147</v>
       </c>
       <c r="E64" t="s">
         <v>345</v>
@@ -5306,42 +5288,42 @@
         <v>349</v>
       </c>
       <c r="B65">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="C65">
-        <v>831238</v>
+        <v>891167</v>
       </c>
       <c r="D65" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" t="s">
         <v>350</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>351</v>
-      </c>
-      <c r="F65" t="s">
-        <v>352</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65" t="s">
+        <v>352</v>
+      </c>
+      <c r="I65" t="s">
         <v>353</v>
-      </c>
-      <c r="I65" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>354</v>
+      </c>
+      <c r="B66">
+        <v>4.5</v>
+      </c>
+      <c r="C66">
+        <v>720081</v>
+      </c>
+      <c r="D66" t="s">
         <v>355</v>
-      </c>
-      <c r="B66">
-        <v>4.3</v>
-      </c>
-      <c r="C66">
-        <v>891167</v>
-      </c>
-      <c r="D66" t="s">
-        <v>125</v>
       </c>
       <c r="E66" t="s">
         <v>356</v>
@@ -5364,10 +5346,10 @@
         <v>360</v>
       </c>
       <c r="B67">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="C67">
-        <v>720081</v>
+        <v>207024</v>
       </c>
       <c r="D67" t="s">
         <v>361</v>
@@ -5396,7 +5378,7 @@
         <v>4.3</v>
       </c>
       <c r="C68">
-        <v>207024</v>
+        <v>299035</v>
       </c>
       <c r="D68" t="s">
         <v>367</v>
@@ -5422,10 +5404,10 @@
         <v>372</v>
       </c>
       <c r="B69">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C69">
-        <v>299035</v>
+        <v>196733</v>
       </c>
       <c r="D69" t="s">
         <v>373</v>
@@ -5451,10 +5433,10 @@
         <v>378</v>
       </c>
       <c r="B70">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C70">
-        <v>196733</v>
+        <v>831890</v>
       </c>
       <c r="D70" t="s">
         <v>379</v>
@@ -5480,100 +5462,100 @@
         <v>384</v>
       </c>
       <c r="B71">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C71">
-        <v>831890</v>
+        <v>128087</v>
       </c>
       <c r="D71" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71" t="s">
         <v>385</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>386</v>
-      </c>
-      <c r="F71" t="s">
-        <v>387</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
       <c r="H71" t="s">
+        <v>387</v>
+      </c>
+      <c r="I71" t="s">
         <v>388</v>
-      </c>
-      <c r="I71" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>389</v>
+      </c>
+      <c r="B72">
+        <v>4.7</v>
+      </c>
+      <c r="C72">
+        <v>266340</v>
+      </c>
+      <c r="D72" t="s">
+        <v>147</v>
+      </c>
+      <c r="E72" t="s">
         <v>390</v>
       </c>
-      <c r="B72">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C72">
-        <v>128087</v>
-      </c>
-      <c r="D72" t="s">
-        <v>125</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>391</v>
-      </c>
-      <c r="F72" t="s">
-        <v>392</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72" t="s">
+        <v>392</v>
+      </c>
+      <c r="I72" t="s">
         <v>393</v>
-      </c>
-      <c r="I72" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>394</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>459627</v>
+      </c>
+      <c r="D73" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73" t="s">
         <v>395</v>
       </c>
-      <c r="B73">
-        <v>4.7</v>
-      </c>
-      <c r="C73">
-        <v>266340</v>
-      </c>
-      <c r="D73" t="s">
-        <v>147</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>396</v>
-      </c>
-      <c r="F73" t="s">
-        <v>397</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73" t="s">
+        <v>397</v>
+      </c>
+      <c r="I73" t="s">
         <v>398</v>
-      </c>
-      <c r="I73" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>399</v>
+      </c>
+      <c r="B74">
+        <v>4.5</v>
+      </c>
+      <c r="C74">
+        <v>653321</v>
+      </c>
+      <c r="D74" t="s">
         <v>400</v>
-      </c>
-      <c r="B74">
-        <v>4</v>
-      </c>
-      <c r="C74">
-        <v>459627</v>
-      </c>
-      <c r="D74" t="s">
-        <v>125</v>
       </c>
       <c r="E74" t="s">
         <v>401</v>
@@ -5596,42 +5578,42 @@
         <v>405</v>
       </c>
       <c r="B75">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>653321</v>
+        <v>805735</v>
       </c>
       <c r="D75" t="s">
+        <v>125</v>
+      </c>
+      <c r="E75" t="s">
         <v>406</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>407</v>
-      </c>
-      <c r="F75" t="s">
-        <v>408</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75" t="s">
+        <v>408</v>
+      </c>
+      <c r="I75" t="s">
         <v>409</v>
-      </c>
-      <c r="I75" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>410</v>
+      </c>
+      <c r="B76">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C76">
+        <v>970705</v>
+      </c>
+      <c r="D76" t="s">
         <v>411</v>
-      </c>
-      <c r="B76">
-        <v>4</v>
-      </c>
-      <c r="C76">
-        <v>805735</v>
-      </c>
-      <c r="D76" t="s">
-        <v>125</v>
       </c>
       <c r="E76" t="s">
         <v>412</v>
@@ -5640,7 +5622,7 @@
         <v>413</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="s">
         <v>414</v>
@@ -5654,71 +5636,71 @@
         <v>416</v>
       </c>
       <c r="B77">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="C77">
-        <v>970705</v>
+        <v>697189</v>
       </c>
       <c r="D77" t="s">
+        <v>239</v>
+      </c>
+      <c r="E77" t="s">
         <v>417</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>418</v>
-      </c>
-      <c r="F77" t="s">
-        <v>419</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77" t="s">
+        <v>419</v>
+      </c>
+      <c r="I77" t="s">
         <v>420</v>
-      </c>
-      <c r="I77" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>421</v>
+      </c>
+      <c r="B78">
+        <v>4.7</v>
+      </c>
+      <c r="C78">
+        <v>711495</v>
+      </c>
+      <c r="D78" t="s">
+        <v>373</v>
+      </c>
+      <c r="E78" t="s">
         <v>422</v>
       </c>
-      <c r="B78">
-        <v>4.8</v>
-      </c>
-      <c r="C78">
-        <v>697189</v>
-      </c>
-      <c r="D78" t="s">
-        <v>245</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>423</v>
-      </c>
-      <c r="F78" t="s">
-        <v>424</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78" t="s">
+        <v>424</v>
+      </c>
+      <c r="I78" t="s">
         <v>425</v>
-      </c>
-      <c r="I78" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>426</v>
+      </c>
+      <c r="B79">
+        <v>4.3</v>
+      </c>
+      <c r="C79">
+        <v>342528</v>
+      </c>
+      <c r="D79" t="s">
         <v>427</v>
-      </c>
-      <c r="B79">
-        <v>4.7</v>
-      </c>
-      <c r="C79">
-        <v>711495</v>
-      </c>
-      <c r="D79" t="s">
-        <v>379</v>
       </c>
       <c r="E79" t="s">
         <v>428</v>
@@ -5741,10 +5723,10 @@
         <v>432</v>
       </c>
       <c r="B80">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="C80">
-        <v>342528</v>
+        <v>191771</v>
       </c>
       <c r="D80" t="s">
         <v>433</v>
@@ -5770,10 +5752,10 @@
         <v>438</v>
       </c>
       <c r="B81">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="C81">
-        <v>191771</v>
+        <v>196623</v>
       </c>
       <c r="D81" t="s">
         <v>439</v>
@@ -5799,10 +5781,10 @@
         <v>444</v>
       </c>
       <c r="B82">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C82">
-        <v>196623</v>
+        <v>331044</v>
       </c>
       <c r="D82" t="s">
         <v>445</v>
@@ -5828,10 +5810,10 @@
         <v>450</v>
       </c>
       <c r="B83">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="C83">
-        <v>331044</v>
+        <v>229438</v>
       </c>
       <c r="D83" t="s">
         <v>451</v>
@@ -5857,42 +5839,42 @@
         <v>456</v>
       </c>
       <c r="B84">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C84">
-        <v>229438</v>
+        <v>152774</v>
       </c>
       <c r="D84" t="s">
+        <v>147</v>
+      </c>
+      <c r="E84" t="s">
         <v>457</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>458</v>
-      </c>
-      <c r="F84" t="s">
-        <v>459</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84" t="s">
+        <v>459</v>
+      </c>
+      <c r="I84" t="s">
         <v>460</v>
-      </c>
-      <c r="I84" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>461</v>
+      </c>
+      <c r="B85">
+        <v>4.7</v>
+      </c>
+      <c r="C85">
+        <v>106188</v>
+      </c>
+      <c r="D85" t="s">
         <v>462</v>
-      </c>
-      <c r="B85">
-        <v>4.8</v>
-      </c>
-      <c r="C85">
-        <v>152774</v>
-      </c>
-      <c r="D85" t="s">
-        <v>147</v>
       </c>
       <c r="E85" t="s">
         <v>463</v>
@@ -5915,158 +5897,158 @@
         <v>467</v>
       </c>
       <c r="B86">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C86">
-        <v>106188</v>
+        <v>776089</v>
       </c>
       <c r="D86" t="s">
+        <v>147</v>
+      </c>
+      <c r="E86" t="s">
         <v>468</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>469</v>
-      </c>
-      <c r="F86" t="s">
-        <v>470</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
+        <v>470</v>
+      </c>
+      <c r="I86" t="s">
         <v>471</v>
-      </c>
-      <c r="I86" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>472</v>
+      </c>
+      <c r="B87">
+        <v>4.5</v>
+      </c>
+      <c r="C87">
+        <v>929604</v>
+      </c>
+      <c r="D87" t="s">
+        <v>439</v>
+      </c>
+      <c r="E87" t="s">
         <v>473</v>
       </c>
-      <c r="B87">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C87">
-        <v>776089</v>
-      </c>
-      <c r="D87" t="s">
-        <v>147</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>474</v>
-      </c>
-      <c r="F87" t="s">
-        <v>475</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
+        <v>475</v>
+      </c>
+      <c r="I87" t="s">
         <v>476</v>
-      </c>
-      <c r="I87" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>477</v>
+      </c>
+      <c r="B88">
+        <v>4.7</v>
+      </c>
+      <c r="C88">
+        <v>739809</v>
+      </c>
+      <c r="D88" t="s">
+        <v>147</v>
+      </c>
+      <c r="E88" t="s">
         <v>478</v>
       </c>
-      <c r="B88">
-        <v>4.5</v>
-      </c>
-      <c r="C88">
-        <v>929604</v>
-      </c>
-      <c r="D88" t="s">
-        <v>445</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>479</v>
-      </c>
-      <c r="F88" t="s">
-        <v>480</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88" t="s">
+        <v>480</v>
+      </c>
+      <c r="I88" t="s">
         <v>481</v>
-      </c>
-      <c r="I88" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B89">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C89">
-        <v>739809</v>
+        <v>360880</v>
       </c>
       <c r="D89" t="s">
         <v>147</v>
       </c>
       <c r="E89" t="s">
+        <v>483</v>
+      </c>
+      <c r="F89" t="s">
         <v>484</v>
-      </c>
-      <c r="F89" t="s">
-        <v>485</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89" t="s">
+        <v>485</v>
+      </c>
+      <c r="I89" t="s">
         <v>486</v>
-      </c>
-      <c r="I89" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>487</v>
+      </c>
+      <c r="B90">
+        <v>4.7</v>
+      </c>
+      <c r="C90">
+        <v>152392</v>
+      </c>
+      <c r="D90" t="s">
+        <v>245</v>
+      </c>
+      <c r="E90" t="s">
         <v>488</v>
       </c>
-      <c r="B90">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C90">
-        <v>360880</v>
-      </c>
-      <c r="D90" t="s">
-        <v>147</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>489</v>
-      </c>
-      <c r="F90" t="s">
-        <v>490</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90" t="s">
+        <v>490</v>
+      </c>
+      <c r="I90" t="s">
         <v>491</v>
-      </c>
-      <c r="I90" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B91">
         <v>4.7</v>
       </c>
       <c r="C91">
-        <v>152392</v>
+        <v>844639</v>
       </c>
       <c r="D91" t="s">
-        <v>251</v>
+        <v>493</v>
       </c>
       <c r="E91" t="s">
         <v>494</v>
@@ -6089,42 +6071,42 @@
         <v>498</v>
       </c>
       <c r="B92">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C92">
-        <v>844639</v>
+        <v>925873</v>
       </c>
       <c r="D92" t="s">
+        <v>245</v>
+      </c>
+      <c r="E92" t="s">
         <v>499</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>500</v>
-      </c>
-      <c r="F92" t="s">
-        <v>501</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92" t="s">
+        <v>501</v>
+      </c>
+      <c r="I92" t="s">
         <v>502</v>
-      </c>
-      <c r="I92" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>503</v>
+      </c>
+      <c r="B93">
+        <v>4.7</v>
+      </c>
+      <c r="C93">
+        <v>676421</v>
+      </c>
+      <c r="D93" t="s">
         <v>504</v>
-      </c>
-      <c r="B93">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C93">
-        <v>925873</v>
-      </c>
-      <c r="D93" t="s">
-        <v>251</v>
       </c>
       <c r="E93" t="s">
         <v>505</v>
@@ -6147,245 +6129,245 @@
         <v>509</v>
       </c>
       <c r="B94">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="C94">
-        <v>676421</v>
+        <v>545412</v>
       </c>
       <c r="D94" t="s">
+        <v>147</v>
+      </c>
+      <c r="E94" t="s">
         <v>510</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>511</v>
-      </c>
-      <c r="F94" t="s">
-        <v>512</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94" t="s">
+        <v>512</v>
+      </c>
+      <c r="I94" t="s">
         <v>513</v>
-      </c>
-      <c r="I94" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>514</v>
+      </c>
+      <c r="B95">
+        <v>4.5</v>
+      </c>
+      <c r="C95">
+        <v>289564</v>
+      </c>
+      <c r="D95" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" t="s">
         <v>515</v>
       </c>
-      <c r="B95">
-        <v>4</v>
-      </c>
-      <c r="C95">
-        <v>545412</v>
-      </c>
-      <c r="D95" t="s">
-        <v>147</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>516</v>
-      </c>
-      <c r="F95" t="s">
-        <v>517</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95" t="s">
+        <v>517</v>
+      </c>
+      <c r="I95" t="s">
         <v>518</v>
-      </c>
-      <c r="I95" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>519</v>
+      </c>
+      <c r="B96">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C96">
+        <v>129727</v>
+      </c>
+      <c r="D96" t="s">
+        <v>306</v>
+      </c>
+      <c r="E96" t="s">
         <v>520</v>
       </c>
-      <c r="B96">
-        <v>4.5</v>
-      </c>
-      <c r="C96">
-        <v>289564</v>
-      </c>
-      <c r="D96" t="s">
-        <v>27</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>521</v>
-      </c>
-      <c r="F96" t="s">
-        <v>522</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96" t="s">
+        <v>522</v>
+      </c>
+      <c r="I96" t="s">
         <v>523</v>
-      </c>
-      <c r="I96" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B97">
         <v>4.5999999999999996</v>
       </c>
       <c r="C97">
-        <v>129727</v>
+        <v>723599</v>
       </c>
       <c r="D97" t="s">
-        <v>312</v>
+        <v>493</v>
       </c>
       <c r="E97" t="s">
+        <v>525</v>
+      </c>
+      <c r="F97" t="s">
         <v>526</v>
-      </c>
-      <c r="F97" t="s">
-        <v>527</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
+        <v>527</v>
+      </c>
+      <c r="I97" t="s">
         <v>528</v>
-      </c>
-      <c r="I97" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>529</v>
+      </c>
+      <c r="B98">
+        <v>4.5</v>
+      </c>
+      <c r="C98">
+        <v>528752</v>
+      </c>
+      <c r="D98" t="s">
+        <v>306</v>
+      </c>
+      <c r="E98" t="s">
         <v>530</v>
       </c>
-      <c r="B98">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C98">
-        <v>723599</v>
-      </c>
-      <c r="D98" t="s">
-        <v>499</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>531</v>
-      </c>
-      <c r="F98" t="s">
-        <v>532</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
+        <v>532</v>
+      </c>
+      <c r="I98" t="s">
         <v>533</v>
-      </c>
-      <c r="I98" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>534</v>
+      </c>
+      <c r="B99">
+        <v>4.7</v>
+      </c>
+      <c r="C99">
+        <v>820574</v>
+      </c>
+      <c r="D99" t="s">
+        <v>373</v>
+      </c>
+      <c r="E99" t="s">
         <v>535</v>
       </c>
-      <c r="B99">
-        <v>4.5</v>
-      </c>
-      <c r="C99">
-        <v>528752</v>
-      </c>
-      <c r="D99" t="s">
-        <v>312</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>536</v>
-      </c>
-      <c r="F99" t="s">
-        <v>537</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99" t="s">
+        <v>537</v>
+      </c>
+      <c r="I99" t="s">
         <v>538</v>
-      </c>
-      <c r="I99" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B100">
         <v>4.7</v>
       </c>
       <c r="C100">
-        <v>820574</v>
+        <v>265387</v>
       </c>
       <c r="D100" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="E100" t="s">
+        <v>540</v>
+      </c>
+      <c r="F100" t="s">
         <v>541</v>
-      </c>
-      <c r="F100" t="s">
-        <v>542</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100" t="s">
+        <v>542</v>
+      </c>
+      <c r="I100" t="s">
         <v>543</v>
-      </c>
-      <c r="I100" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B101">
         <v>4.7</v>
       </c>
       <c r="C101">
-        <v>265387</v>
+        <v>958609</v>
       </c>
       <c r="D101" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="E101" t="s">
+        <v>545</v>
+      </c>
+      <c r="F101" t="s">
         <v>546</v>
-      </c>
-      <c r="F101" t="s">
-        <v>547</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101" t="s">
+        <v>547</v>
+      </c>
+      <c r="I101" t="s">
         <v>548</v>
-      </c>
-      <c r="I101" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>549</v>
+      </c>
+      <c r="B102">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C102">
+        <v>770170</v>
+      </c>
+      <c r="D102" t="s">
         <v>550</v>
-      </c>
-      <c r="B102">
-        <v>4.7</v>
-      </c>
-      <c r="C102">
-        <v>958609</v>
-      </c>
-      <c r="D102" t="s">
-        <v>433</v>
       </c>
       <c r="E102" t="s">
         <v>551</v>
@@ -6411,7 +6393,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C103">
-        <v>770170</v>
+        <v>615414</v>
       </c>
       <c r="D103" t="s">
         <v>556</v>
@@ -6440,329 +6422,329 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C104">
-        <v>615414</v>
+        <v>615371</v>
       </c>
       <c r="D104" t="s">
+        <v>504</v>
+      </c>
+      <c r="E104" t="s">
         <v>562</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>563</v>
-      </c>
-      <c r="F104" t="s">
-        <v>564</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104" t="s">
+        <v>564</v>
+      </c>
+      <c r="I104" t="s">
         <v>565</v>
-      </c>
-      <c r="I104" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>566</v>
+      </c>
+      <c r="B105">
+        <v>4.5</v>
+      </c>
+      <c r="C105">
+        <v>452231</v>
+      </c>
+      <c r="D105" t="s">
+        <v>239</v>
+      </c>
+      <c r="E105" t="s">
         <v>567</v>
       </c>
-      <c r="B105">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C105">
-        <v>615371</v>
-      </c>
-      <c r="D105" t="s">
-        <v>510</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>568</v>
-      </c>
-      <c r="F105" t="s">
-        <v>569</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105" t="s">
+        <v>569</v>
+      </c>
+      <c r="I105" t="s">
         <v>570</v>
-      </c>
-      <c r="I105" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>571</v>
+      </c>
+      <c r="B106">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C106">
+        <v>188547</v>
+      </c>
+      <c r="D106" t="s">
+        <v>373</v>
+      </c>
+      <c r="E106" t="s">
         <v>572</v>
       </c>
-      <c r="B106">
-        <v>4.5</v>
-      </c>
-      <c r="C106">
-        <v>452231</v>
-      </c>
-      <c r="D106" t="s">
-        <v>245</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>573</v>
-      </c>
-      <c r="F106" t="s">
-        <v>574</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106" t="s">
+        <v>574</v>
+      </c>
+      <c r="I106" t="s">
         <v>575</v>
-      </c>
-      <c r="I106" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>576</v>
+      </c>
+      <c r="B107">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C107">
+        <v>213420</v>
+      </c>
+      <c r="D107" t="s">
+        <v>373</v>
+      </c>
+      <c r="E107" t="s">
         <v>577</v>
       </c>
-      <c r="B107">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C107">
-        <v>188547</v>
-      </c>
-      <c r="D107" t="s">
-        <v>379</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>578</v>
-      </c>
-      <c r="F107" t="s">
-        <v>579</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107" t="s">
+        <v>579</v>
+      </c>
+      <c r="I107" t="s">
         <v>580</v>
-      </c>
-      <c r="I107" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>581</v>
+      </c>
+      <c r="B108">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C108">
+        <v>335098</v>
+      </c>
+      <c r="D108" t="s">
+        <v>373</v>
+      </c>
+      <c r="E108" t="s">
         <v>582</v>
       </c>
-      <c r="B108">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C108">
-        <v>213420</v>
-      </c>
-      <c r="D108" t="s">
-        <v>379</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>583</v>
-      </c>
-      <c r="F108" t="s">
-        <v>584</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108" t="s">
+        <v>584</v>
+      </c>
+      <c r="I108" t="s">
         <v>585</v>
-      </c>
-      <c r="I108" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>586</v>
+      </c>
+      <c r="B109">
+        <v>4.7</v>
+      </c>
+      <c r="C109">
+        <v>572919</v>
+      </c>
+      <c r="D109" t="s">
+        <v>411</v>
+      </c>
+      <c r="E109" t="s">
         <v>587</v>
       </c>
-      <c r="B109">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C109">
-        <v>335098</v>
-      </c>
-      <c r="D109" t="s">
-        <v>379</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>588</v>
-      </c>
-      <c r="F109" t="s">
-        <v>589</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109" t="s">
+        <v>589</v>
+      </c>
+      <c r="I109" t="s">
         <v>590</v>
-      </c>
-      <c r="I109" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>591</v>
+      </c>
+      <c r="B110">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C110">
+        <v>806175</v>
+      </c>
+      <c r="D110" t="s">
+        <v>400</v>
+      </c>
+      <c r="E110" t="s">
         <v>592</v>
       </c>
-      <c r="B110">
-        <v>4.7</v>
-      </c>
-      <c r="C110">
-        <v>572919</v>
-      </c>
-      <c r="D110" t="s">
-        <v>417</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>593</v>
-      </c>
-      <c r="F110" t="s">
-        <v>594</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110" t="s">
+        <v>594</v>
+      </c>
+      <c r="I110" t="s">
         <v>595</v>
-      </c>
-      <c r="I110" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>596</v>
+      </c>
+      <c r="B111">
+        <v>4.7</v>
+      </c>
+      <c r="C111">
+        <v>859308</v>
+      </c>
+      <c r="D111" t="s">
+        <v>245</v>
+      </c>
+      <c r="E111" t="s">
         <v>597</v>
       </c>
-      <c r="B111">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C111">
-        <v>806175</v>
-      </c>
-      <c r="D111" t="s">
-        <v>406</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>598</v>
-      </c>
-      <c r="F111" t="s">
-        <v>599</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111" t="s">
+        <v>599</v>
+      </c>
+      <c r="I111" t="s">
         <v>600</v>
-      </c>
-      <c r="I111" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>601</v>
+      </c>
+      <c r="B112">
+        <v>4.8</v>
+      </c>
+      <c r="C112">
+        <v>260289</v>
+      </c>
+      <c r="D112" t="s">
+        <v>147</v>
+      </c>
+      <c r="E112" t="s">
         <v>602</v>
       </c>
-      <c r="B112">
-        <v>4.7</v>
-      </c>
-      <c r="C112">
-        <v>859308</v>
-      </c>
-      <c r="D112" t="s">
-        <v>251</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>603</v>
-      </c>
-      <c r="F112" t="s">
-        <v>604</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112" t="s">
+        <v>604</v>
+      </c>
+      <c r="I112" t="s">
         <v>605</v>
-      </c>
-      <c r="I112" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B113">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="C113">
-        <v>260289</v>
+        <v>672514</v>
       </c>
       <c r="D113" t="s">
         <v>147</v>
       </c>
       <c r="E113" t="s">
+        <v>607</v>
+      </c>
+      <c r="F113" t="s">
         <v>608</v>
-      </c>
-      <c r="F113" t="s">
-        <v>609</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113" t="s">
+        <v>609</v>
+      </c>
+      <c r="I113" t="s">
         <v>610</v>
-      </c>
-      <c r="I113" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>611</v>
+      </c>
+      <c r="B114">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C114">
+        <v>228552</v>
+      </c>
+      <c r="D114" t="s">
+        <v>439</v>
+      </c>
+      <c r="E114" t="s">
         <v>612</v>
       </c>
-      <c r="B114">
-        <v>4.2</v>
-      </c>
-      <c r="C114">
-        <v>672514</v>
-      </c>
-      <c r="D114" t="s">
-        <v>147</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>613</v>
-      </c>
-      <c r="F114" t="s">
-        <v>614</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114" t="s">
+        <v>614</v>
+      </c>
+      <c r="I114" t="s">
         <v>615</v>
-      </c>
-      <c r="I114" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>616</v>
+      </c>
+      <c r="B115">
+        <v>4.2</v>
+      </c>
+      <c r="C115">
+        <v>132006</v>
+      </c>
+      <c r="D115" t="s">
         <v>617</v>
-      </c>
-      <c r="B115">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C115">
-        <v>228552</v>
-      </c>
-      <c r="D115" t="s">
-        <v>445</v>
       </c>
       <c r="E115" t="s">
         <v>618</v>
@@ -6785,10 +6767,10 @@
         <v>622</v>
       </c>
       <c r="B116">
-        <v>4.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C116">
-        <v>132006</v>
+        <v>213192</v>
       </c>
       <c r="D116" t="s">
         <v>623</v>
@@ -6817,126 +6799,126 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C117">
-        <v>213192</v>
+        <v>723399</v>
       </c>
       <c r="D117" t="s">
+        <v>147</v>
+      </c>
+      <c r="E117" t="s">
         <v>629</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>630</v>
-      </c>
-      <c r="F117" t="s">
-        <v>631</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117" t="s">
+        <v>631</v>
+      </c>
+      <c r="I117" t="s">
         <v>632</v>
-      </c>
-      <c r="I117" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>633</v>
+      </c>
+      <c r="B118">
+        <v>4.7</v>
+      </c>
+      <c r="C118">
+        <v>750637</v>
+      </c>
+      <c r="D118" t="s">
+        <v>462</v>
+      </c>
+      <c r="E118" t="s">
         <v>634</v>
       </c>
-      <c r="B118">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C118">
-        <v>723399</v>
-      </c>
-      <c r="D118" t="s">
-        <v>147</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>635</v>
-      </c>
-      <c r="F118" t="s">
-        <v>636</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118" t="s">
+        <v>636</v>
+      </c>
+      <c r="I118" t="s">
         <v>637</v>
-      </c>
-      <c r="I118" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B119">
         <v>4.7</v>
       </c>
       <c r="C119">
-        <v>750637</v>
+        <v>221021</v>
       </c>
       <c r="D119" t="s">
-        <v>468</v>
+        <v>147</v>
       </c>
       <c r="E119" t="s">
+        <v>639</v>
+      </c>
+      <c r="F119" t="s">
         <v>640</v>
-      </c>
-      <c r="F119" t="s">
-        <v>641</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119" t="s">
+        <v>641</v>
+      </c>
+      <c r="I119" t="s">
         <v>642</v>
-      </c>
-      <c r="I119" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B120">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="C120">
-        <v>221021</v>
+        <v>691699</v>
       </c>
       <c r="D120" t="s">
         <v>147</v>
       </c>
       <c r="E120" t="s">
+        <v>644</v>
+      </c>
+      <c r="F120" t="s">
         <v>645</v>
-      </c>
-      <c r="F120" t="s">
-        <v>646</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120" t="s">
+        <v>646</v>
+      </c>
+      <c r="I120" t="s">
         <v>647</v>
-      </c>
-      <c r="I120" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>648</v>
+      </c>
+      <c r="B121">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C121">
+        <v>112832</v>
+      </c>
+      <c r="D121" t="s">
         <v>649</v>
-      </c>
-      <c r="B121">
-        <v>4.5</v>
-      </c>
-      <c r="C121">
-        <v>691699</v>
-      </c>
-      <c r="D121" t="s">
-        <v>147</v>
       </c>
       <c r="E121" t="s">
         <v>650</v>
@@ -6959,216 +6941,216 @@
         <v>654</v>
       </c>
       <c r="B122">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C122">
-        <v>112832</v>
+        <v>879950</v>
       </c>
       <c r="D122" t="s">
+        <v>147</v>
+      </c>
+      <c r="E122" t="s">
         <v>655</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>656</v>
-      </c>
-      <c r="F122" t="s">
-        <v>657</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122" t="s">
+        <v>657</v>
+      </c>
+      <c r="I122" t="s">
         <v>658</v>
-      </c>
-      <c r="I122" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B123">
         <v>4.5999999999999996</v>
       </c>
       <c r="C123">
-        <v>879950</v>
+        <v>625673</v>
       </c>
       <c r="D123" t="s">
-        <v>147</v>
+        <v>462</v>
       </c>
       <c r="E123" t="s">
+        <v>660</v>
+      </c>
+      <c r="F123" t="s">
         <v>661</v>
-      </c>
-      <c r="F123" t="s">
-        <v>662</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123" t="s">
+        <v>662</v>
+      </c>
+      <c r="I123" t="s">
         <v>663</v>
-      </c>
-      <c r="I123" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>664</v>
+      </c>
+      <c r="B124">
+        <v>4.8</v>
+      </c>
+      <c r="C124">
+        <v>489599</v>
+      </c>
+      <c r="D124" t="s">
+        <v>147</v>
+      </c>
+      <c r="E124" t="s">
         <v>665</v>
       </c>
-      <c r="B124">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C124">
-        <v>625673</v>
-      </c>
-      <c r="D124" t="s">
-        <v>468</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>666</v>
-      </c>
-      <c r="F124" t="s">
-        <v>667</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124" t="s">
+        <v>667</v>
+      </c>
+      <c r="I124" t="s">
         <v>668</v>
-      </c>
-      <c r="I124" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B125">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C125">
-        <v>489599</v>
+        <v>631691</v>
       </c>
       <c r="D125" t="s">
         <v>147</v>
       </c>
       <c r="E125" t="s">
+        <v>670</v>
+      </c>
+      <c r="F125" t="s">
         <v>671</v>
-      </c>
-      <c r="F125" t="s">
-        <v>672</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125" t="s">
+        <v>672</v>
+      </c>
+      <c r="I125" t="s">
         <v>673</v>
-      </c>
-      <c r="I125" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B126">
-        <v>4.5999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C126">
-        <v>631691</v>
+        <v>204226</v>
       </c>
       <c r="D126" t="s">
         <v>147</v>
       </c>
       <c r="E126" t="s">
+        <v>675</v>
+      </c>
+      <c r="F126" t="s">
         <v>676</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126">
+        <v>3</v>
+      </c>
+      <c r="H126" t="s">
         <v>677</v>
       </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126" t="s">
+      <c r="I126" t="s">
         <v>678</v>
-      </c>
-      <c r="I126" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>679</v>
+      </c>
+      <c r="B127">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C127">
+        <v>824345</v>
+      </c>
+      <c r="D127" t="s">
+        <v>373</v>
+      </c>
+      <c r="E127" t="s">
         <v>680</v>
       </c>
-      <c r="B127">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C127">
-        <v>204226</v>
-      </c>
-      <c r="D127" t="s">
-        <v>147</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>681</v>
-      </c>
-      <c r="F127" t="s">
-        <v>682</v>
       </c>
       <c r="G127">
         <v>3</v>
       </c>
       <c r="H127" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I127" t="s">
-        <v>684</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>683</v>
+      </c>
+      <c r="B128">
+        <v>4.8</v>
+      </c>
+      <c r="C128">
+        <v>715835</v>
+      </c>
+      <c r="D128" t="s">
+        <v>147</v>
+      </c>
+      <c r="E128" t="s">
+        <v>684</v>
+      </c>
+      <c r="F128" t="s">
         <v>685</v>
-      </c>
-      <c r="B128">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C128">
-        <v>824345</v>
-      </c>
-      <c r="D128" t="s">
-        <v>379</v>
-      </c>
-      <c r="E128" t="s">
-        <v>686</v>
-      </c>
-      <c r="F128" t="s">
-        <v>687</v>
       </c>
       <c r="G128">
         <v>3</v>
       </c>
       <c r="H128" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I128" t="s">
-        <v>25</v>
+        <v>687</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>688</v>
+      </c>
+      <c r="B129">
+        <v>4.3</v>
+      </c>
+      <c r="C129">
+        <v>957964</v>
+      </c>
+      <c r="D129" t="s">
         <v>689</v>
-      </c>
-      <c r="B129">
-        <v>4.8</v>
-      </c>
-      <c r="C129">
-        <v>715835</v>
-      </c>
-      <c r="D129" t="s">
-        <v>147</v>
       </c>
       <c r="E129" t="s">
         <v>690</v>
@@ -7191,71 +7173,71 @@
         <v>694</v>
       </c>
       <c r="B130">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="C130">
-        <v>957964</v>
+        <v>450480</v>
       </c>
       <c r="D130" t="s">
+        <v>147</v>
+      </c>
+      <c r="E130" t="s">
         <v>695</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>696</v>
-      </c>
-      <c r="F130" t="s">
-        <v>697</v>
       </c>
       <c r="G130">
         <v>3</v>
       </c>
       <c r="H130" t="s">
+        <v>697</v>
+      </c>
+      <c r="I130" t="s">
         <v>698</v>
-      </c>
-      <c r="I130" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B131">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C131">
-        <v>450480</v>
+        <v>930187</v>
       </c>
       <c r="D131" t="s">
         <v>147</v>
       </c>
       <c r="E131" t="s">
+        <v>700</v>
+      </c>
+      <c r="F131" t="s">
         <v>701</v>
-      </c>
-      <c r="F131" t="s">
-        <v>702</v>
       </c>
       <c r="G131">
         <v>3</v>
       </c>
       <c r="H131" t="s">
+        <v>702</v>
+      </c>
+      <c r="I131" t="s">
         <v>703</v>
-      </c>
-      <c r="I131" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>704</v>
+      </c>
+      <c r="B132">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C132">
+        <v>467581</v>
+      </c>
+      <c r="D132" t="s">
         <v>705</v>
-      </c>
-      <c r="B132">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C132">
-        <v>930187</v>
-      </c>
-      <c r="D132" t="s">
-        <v>147</v>
       </c>
       <c r="E132" t="s">
         <v>706</v>
@@ -7281,213 +7263,213 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C133">
-        <v>467581</v>
+        <v>366333</v>
       </c>
       <c r="D133" t="s">
+        <v>147</v>
+      </c>
+      <c r="E133" t="s">
         <v>711</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>712</v>
-      </c>
-      <c r="F133" t="s">
-        <v>713</v>
       </c>
       <c r="G133">
         <v>3</v>
       </c>
       <c r="H133" t="s">
+        <v>713</v>
+      </c>
+      <c r="I133" t="s">
         <v>714</v>
-      </c>
-      <c r="I133" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B134">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="C134">
-        <v>366333</v>
+        <v>992964</v>
       </c>
       <c r="D134" t="s">
         <v>147</v>
       </c>
       <c r="E134" t="s">
+        <v>716</v>
+      </c>
+      <c r="F134" t="s">
         <v>717</v>
-      </c>
-      <c r="F134" t="s">
-        <v>718</v>
       </c>
       <c r="G134">
         <v>3</v>
       </c>
       <c r="H134" t="s">
+        <v>718</v>
+      </c>
+      <c r="I134" t="s">
         <v>719</v>
-      </c>
-      <c r="I134" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B135">
         <v>4.5</v>
       </c>
       <c r="C135">
-        <v>992964</v>
+        <v>962195</v>
       </c>
       <c r="D135" t="s">
         <v>147</v>
       </c>
       <c r="E135" t="s">
+        <v>721</v>
+      </c>
+      <c r="F135" t="s">
         <v>722</v>
-      </c>
-      <c r="F135" t="s">
-        <v>723</v>
       </c>
       <c r="G135">
         <v>3</v>
       </c>
       <c r="H135" t="s">
+        <v>723</v>
+      </c>
+      <c r="I135" t="s">
         <v>724</v>
-      </c>
-      <c r="I135" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B136">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C136">
-        <v>962195</v>
+        <v>126399</v>
       </c>
       <c r="D136" t="s">
         <v>147</v>
       </c>
       <c r="E136" t="s">
+        <v>726</v>
+      </c>
+      <c r="F136" t="s">
         <v>727</v>
-      </c>
-      <c r="F136" t="s">
-        <v>728</v>
       </c>
       <c r="G136">
         <v>3</v>
       </c>
       <c r="H136" t="s">
+        <v>728</v>
+      </c>
+      <c r="I136" t="s">
         <v>729</v>
-      </c>
-      <c r="I136" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B137">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="C137">
-        <v>126399</v>
+        <v>598162</v>
       </c>
       <c r="D137" t="s">
         <v>147</v>
       </c>
       <c r="E137" t="s">
+        <v>731</v>
+      </c>
+      <c r="F137" t="s">
         <v>732</v>
-      </c>
-      <c r="F137" t="s">
-        <v>733</v>
       </c>
       <c r="G137">
         <v>3</v>
       </c>
       <c r="H137" t="s">
+        <v>733</v>
+      </c>
+      <c r="I137" t="s">
         <v>734</v>
-      </c>
-      <c r="I137" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B138">
-        <v>4.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C138">
-        <v>598162</v>
+        <v>443705</v>
       </c>
       <c r="D138" t="s">
         <v>147</v>
       </c>
       <c r="E138" t="s">
+        <v>736</v>
+      </c>
+      <c r="F138" t="s">
         <v>737</v>
-      </c>
-      <c r="F138" t="s">
-        <v>738</v>
       </c>
       <c r="G138">
         <v>3</v>
       </c>
       <c r="H138" t="s">
+        <v>738</v>
+      </c>
+      <c r="I138" t="s">
         <v>739</v>
-      </c>
-      <c r="I138" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B139">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="C139">
-        <v>443705</v>
+        <v>197961</v>
       </c>
       <c r="D139" t="s">
         <v>147</v>
       </c>
       <c r="E139" t="s">
+        <v>741</v>
+      </c>
+      <c r="F139" t="s">
         <v>742</v>
-      </c>
-      <c r="F139" t="s">
-        <v>743</v>
       </c>
       <c r="G139">
         <v>3</v>
       </c>
       <c r="H139" t="s">
+        <v>743</v>
+      </c>
+      <c r="I139" t="s">
         <v>744</v>
-      </c>
-      <c r="I139" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>745</v>
+      </c>
+      <c r="B140">
+        <v>4.8</v>
+      </c>
+      <c r="C140">
+        <v>755016</v>
+      </c>
+      <c r="D140" t="s">
         <v>746</v>
-      </c>
-      <c r="B140">
-        <v>4.5</v>
-      </c>
-      <c r="C140">
-        <v>197961</v>
-      </c>
-      <c r="D140" t="s">
-        <v>147</v>
       </c>
       <c r="E140" t="s">
         <v>747</v>
@@ -7510,42 +7492,42 @@
         <v>751</v>
       </c>
       <c r="B141">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C141">
-        <v>755016</v>
+        <v>708729</v>
       </c>
       <c r="D141" t="s">
+        <v>147</v>
+      </c>
+      <c r="E141" t="s">
         <v>752</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>753</v>
-      </c>
-      <c r="F141" t="s">
-        <v>754</v>
       </c>
       <c r="G141">
         <v>3</v>
       </c>
       <c r="H141" t="s">
+        <v>754</v>
+      </c>
+      <c r="I141" t="s">
         <v>755</v>
-      </c>
-      <c r="I141" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>756</v>
+      </c>
+      <c r="B142">
+        <v>4.3</v>
+      </c>
+      <c r="C142">
+        <v>891707</v>
+      </c>
+      <c r="D142" t="s">
         <v>757</v>
-      </c>
-      <c r="B142">
-        <v>4.7</v>
-      </c>
-      <c r="C142">
-        <v>708729</v>
-      </c>
-      <c r="D142" t="s">
-        <v>147</v>
       </c>
       <c r="E142" t="s">
         <v>758</v>
@@ -7568,42 +7550,42 @@
         <v>762</v>
       </c>
       <c r="B143">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="C143">
-        <v>891707</v>
+        <v>516585</v>
       </c>
       <c r="D143" t="s">
+        <v>147</v>
+      </c>
+      <c r="E143" t="s">
         <v>763</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>764</v>
-      </c>
-      <c r="F143" t="s">
-        <v>765</v>
       </c>
       <c r="G143">
         <v>3</v>
       </c>
       <c r="H143" t="s">
+        <v>765</v>
+      </c>
+      <c r="I143" t="s">
         <v>766</v>
-      </c>
-      <c r="I143" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>767</v>
+      </c>
+      <c r="B144">
+        <v>4.7</v>
+      </c>
+      <c r="C144">
+        <v>897781</v>
+      </c>
+      <c r="D144" t="s">
         <v>768</v>
-      </c>
-      <c r="B144">
-        <v>4.8</v>
-      </c>
-      <c r="C144">
-        <v>516585</v>
-      </c>
-      <c r="D144" t="s">
-        <v>147</v>
       </c>
       <c r="E144" t="s">
         <v>769</v>
@@ -7626,42 +7608,42 @@
         <v>773</v>
       </c>
       <c r="B145">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C145">
-        <v>897781</v>
+        <v>148271</v>
       </c>
       <c r="D145" t="s">
+        <v>147</v>
+      </c>
+      <c r="E145" t="s">
         <v>774</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>775</v>
-      </c>
-      <c r="F145" t="s">
-        <v>776</v>
       </c>
       <c r="G145">
         <v>3</v>
       </c>
       <c r="H145" t="s">
+        <v>776</v>
+      </c>
+      <c r="I145" t="s">
         <v>777</v>
-      </c>
-      <c r="I145" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>778</v>
+      </c>
+      <c r="B146">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C146">
+        <v>927834</v>
+      </c>
+      <c r="D146" t="s">
         <v>779</v>
-      </c>
-      <c r="B146">
-        <v>4.8</v>
-      </c>
-      <c r="C146">
-        <v>148271</v>
-      </c>
-      <c r="D146" t="s">
-        <v>147</v>
       </c>
       <c r="E146" t="s">
         <v>780</v>
@@ -7684,129 +7666,129 @@
         <v>784</v>
       </c>
       <c r="B147">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="C147">
-        <v>927834</v>
+        <v>322220</v>
       </c>
       <c r="D147" t="s">
+        <v>147</v>
+      </c>
+      <c r="E147" t="s">
         <v>785</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>786</v>
-      </c>
-      <c r="F147" t="s">
-        <v>787</v>
       </c>
       <c r="G147">
         <v>3</v>
       </c>
       <c r="H147" t="s">
+        <v>787</v>
+      </c>
+      <c r="I147" t="s">
         <v>788</v>
-      </c>
-      <c r="I147" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B148">
         <v>4.8</v>
       </c>
       <c r="C148">
-        <v>322220</v>
+        <v>563837</v>
       </c>
       <c r="D148" t="s">
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>790</v>
+      </c>
+      <c r="F148" t="s">
         <v>791</v>
-      </c>
-      <c r="F148" t="s">
-        <v>792</v>
       </c>
       <c r="G148">
         <v>3</v>
       </c>
       <c r="H148" t="s">
+        <v>792</v>
+      </c>
+      <c r="I148" t="s">
         <v>793</v>
-      </c>
-      <c r="I148" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B149">
         <v>4.8</v>
       </c>
       <c r="C149">
-        <v>563837</v>
+        <v>554262</v>
       </c>
       <c r="D149" t="s">
-        <v>147</v>
+        <v>768</v>
       </c>
       <c r="E149" t="s">
+        <v>795</v>
+      </c>
+      <c r="F149" t="s">
         <v>796</v>
-      </c>
-      <c r="F149" t="s">
-        <v>797</v>
       </c>
       <c r="G149">
         <v>3</v>
       </c>
       <c r="H149" t="s">
+        <v>797</v>
+      </c>
+      <c r="I149" t="s">
         <v>798</v>
-      </c>
-      <c r="I149" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B150">
         <v>4.8</v>
       </c>
       <c r="C150">
-        <v>554262</v>
+        <v>951668</v>
       </c>
       <c r="D150" t="s">
-        <v>774</v>
+        <v>239</v>
       </c>
       <c r="E150" t="s">
+        <v>800</v>
+      </c>
+      <c r="F150" t="s">
         <v>801</v>
-      </c>
-      <c r="F150" t="s">
-        <v>802</v>
       </c>
       <c r="G150">
         <v>3</v>
       </c>
       <c r="H150" t="s">
+        <v>802</v>
+      </c>
+      <c r="I150" t="s">
         <v>803</v>
-      </c>
-      <c r="I150" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B151">
         <v>4.8</v>
       </c>
       <c r="C151">
-        <v>951668</v>
+        <v>537829</v>
       </c>
       <c r="D151" t="s">
-        <v>245</v>
+        <v>805</v>
       </c>
       <c r="E151" t="s">
         <v>806</v>
@@ -7829,10 +7811,10 @@
         <v>810</v>
       </c>
       <c r="B152">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="C152">
-        <v>537829</v>
+        <v>883002</v>
       </c>
       <c r="D152" t="s">
         <v>811</v>
@@ -7858,129 +7840,129 @@
         <v>816</v>
       </c>
       <c r="B153">
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C153">
-        <v>883002</v>
+        <v>917914</v>
       </c>
       <c r="D153" t="s">
+        <v>147</v>
+      </c>
+      <c r="E153" t="s">
         <v>817</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>818</v>
-      </c>
-      <c r="F153" t="s">
-        <v>819</v>
       </c>
       <c r="G153">
         <v>3</v>
       </c>
       <c r="H153" t="s">
+        <v>819</v>
+      </c>
+      <c r="I153" t="s">
         <v>820</v>
-      </c>
-      <c r="I153" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B154">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C154">
-        <v>917914</v>
+        <v>227804</v>
       </c>
       <c r="D154" t="s">
         <v>147</v>
       </c>
       <c r="E154" t="s">
+        <v>822</v>
+      </c>
+      <c r="F154" t="s">
         <v>823</v>
-      </c>
-      <c r="F154" t="s">
-        <v>824</v>
       </c>
       <c r="G154">
         <v>3</v>
       </c>
       <c r="H154" t="s">
+        <v>824</v>
+      </c>
+      <c r="I154" t="s">
         <v>825</v>
-      </c>
-      <c r="I154" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B155">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="C155">
-        <v>227804</v>
+        <v>928073</v>
       </c>
       <c r="D155" t="s">
         <v>147</v>
       </c>
       <c r="E155" t="s">
+        <v>827</v>
+      </c>
+      <c r="F155" t="s">
         <v>828</v>
-      </c>
-      <c r="F155" t="s">
-        <v>829</v>
       </c>
       <c r="G155">
         <v>3</v>
       </c>
       <c r="H155" t="s">
+        <v>829</v>
+      </c>
+      <c r="I155" t="s">
         <v>830</v>
-      </c>
-      <c r="I155" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B156">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C156">
-        <v>928073</v>
+        <v>721688</v>
       </c>
       <c r="D156" t="s">
         <v>147</v>
       </c>
       <c r="E156" t="s">
+        <v>832</v>
+      </c>
+      <c r="F156" t="s">
         <v>833</v>
-      </c>
-      <c r="F156" t="s">
-        <v>834</v>
       </c>
       <c r="G156">
         <v>3</v>
       </c>
       <c r="H156" t="s">
+        <v>834</v>
+      </c>
+      <c r="I156" t="s">
         <v>835</v>
-      </c>
-      <c r="I156" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>836</v>
+      </c>
+      <c r="B157">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C157">
+        <v>341412</v>
+      </c>
+      <c r="D157" t="s">
         <v>837</v>
-      </c>
-      <c r="B157">
-        <v>4.8</v>
-      </c>
-      <c r="C157">
-        <v>721688</v>
-      </c>
-      <c r="D157" t="s">
-        <v>147</v>
       </c>
       <c r="E157" t="s">
         <v>838</v>
@@ -8003,42 +7985,42 @@
         <v>842</v>
       </c>
       <c r="B158">
-        <v>4.9000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="C158">
-        <v>341412</v>
+        <v>207141</v>
       </c>
       <c r="D158" t="s">
+        <v>147</v>
+      </c>
+      <c r="E158" t="s">
         <v>843</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>844</v>
-      </c>
-      <c r="F158" t="s">
-        <v>845</v>
       </c>
       <c r="G158">
         <v>3</v>
       </c>
       <c r="H158" t="s">
+        <v>845</v>
+      </c>
+      <c r="I158" t="s">
         <v>846</v>
-      </c>
-      <c r="I158" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B159">
         <v>4.7</v>
       </c>
       <c r="C159">
-        <v>207141</v>
+        <v>960907</v>
       </c>
       <c r="D159" t="s">
-        <v>147</v>
+        <v>848</v>
       </c>
       <c r="E159" t="s">
         <v>849</v>
@@ -8061,42 +8043,42 @@
         <v>853</v>
       </c>
       <c r="B160">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C160">
-        <v>960907</v>
+        <v>693072</v>
       </c>
       <c r="D160" t="s">
+        <v>318</v>
+      </c>
+      <c r="E160" t="s">
         <v>854</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>855</v>
-      </c>
-      <c r="F160" t="s">
-        <v>856</v>
       </c>
       <c r="G160">
         <v>3</v>
       </c>
       <c r="H160" t="s">
+        <v>856</v>
+      </c>
+      <c r="I160" t="s">
         <v>857</v>
-      </c>
-      <c r="I160" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>858</v>
+      </c>
+      <c r="B161">
+        <v>4.7</v>
+      </c>
+      <c r="C161">
+        <v>463612</v>
+      </c>
+      <c r="D161" t="s">
         <v>859</v>
-      </c>
-      <c r="B161">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C161">
-        <v>693072</v>
-      </c>
-      <c r="D161" t="s">
-        <v>324</v>
       </c>
       <c r="E161" t="s">
         <v>860</v>
@@ -8122,39 +8104,39 @@
         <v>4.7</v>
       </c>
       <c r="C162">
-        <v>463612</v>
+        <v>303350</v>
       </c>
       <c r="D162" t="s">
+        <v>462</v>
+      </c>
+      <c r="E162" t="s">
         <v>865</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>866</v>
-      </c>
-      <c r="F162" t="s">
-        <v>867</v>
       </c>
       <c r="G162">
         <v>3</v>
       </c>
       <c r="H162" t="s">
+        <v>867</v>
+      </c>
+      <c r="I162" t="s">
         <v>868</v>
-      </c>
-      <c r="I162" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>869</v>
+      </c>
+      <c r="B163">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C163">
+        <v>104738</v>
+      </c>
+      <c r="D163" t="s">
         <v>870</v>
-      </c>
-      <c r="B163">
-        <v>4.7</v>
-      </c>
-      <c r="C163">
-        <v>303350</v>
-      </c>
-      <c r="D163" t="s">
-        <v>468</v>
       </c>
       <c r="E163" t="s">
         <v>871</v>
@@ -8177,71 +8159,71 @@
         <v>875</v>
       </c>
       <c r="B164">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="C164">
-        <v>104738</v>
+        <v>274391</v>
       </c>
       <c r="D164" t="s">
+        <v>147</v>
+      </c>
+      <c r="E164" t="s">
         <v>876</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
         <v>877</v>
-      </c>
-      <c r="F164" t="s">
-        <v>878</v>
       </c>
       <c r="G164">
         <v>3</v>
       </c>
       <c r="H164" t="s">
+        <v>878</v>
+      </c>
+      <c r="I164" t="s">
         <v>879</v>
-      </c>
-      <c r="I164" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B165">
         <v>4.7</v>
       </c>
       <c r="C165">
-        <v>274391</v>
+        <v>568229</v>
       </c>
       <c r="D165" t="s">
-        <v>147</v>
+        <v>439</v>
       </c>
       <c r="E165" t="s">
+        <v>881</v>
+      </c>
+      <c r="F165" t="s">
         <v>882</v>
-      </c>
-      <c r="F165" t="s">
-        <v>883</v>
       </c>
       <c r="G165">
         <v>3</v>
       </c>
       <c r="H165" t="s">
+        <v>883</v>
+      </c>
+      <c r="I165" t="s">
         <v>884</v>
-      </c>
-      <c r="I165" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>885</v>
+      </c>
+      <c r="B166">
+        <v>4.3</v>
+      </c>
+      <c r="C166">
+        <v>251013</v>
+      </c>
+      <c r="D166" t="s">
         <v>886</v>
-      </c>
-      <c r="B166">
-        <v>4.7</v>
-      </c>
-      <c r="C166">
-        <v>568229</v>
-      </c>
-      <c r="D166" t="s">
-        <v>445</v>
       </c>
       <c r="E166" t="s">
         <v>887</v>
@@ -8264,10 +8246,10 @@
         <v>891</v>
       </c>
       <c r="B167">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C167">
-        <v>251013</v>
+        <v>299185</v>
       </c>
       <c r="D167" t="s">
         <v>892</v>
@@ -8296,155 +8278,155 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C168">
-        <v>299185</v>
+        <v>470793</v>
       </c>
       <c r="D168" t="s">
+        <v>400</v>
+      </c>
+      <c r="E168" t="s">
         <v>898</v>
       </c>
-      <c r="E168" t="s">
+      <c r="F168" t="s">
         <v>899</v>
-      </c>
-      <c r="F168" t="s">
-        <v>900</v>
       </c>
       <c r="G168">
         <v>3</v>
       </c>
       <c r="H168" t="s">
+        <v>900</v>
+      </c>
+      <c r="I168" t="s">
         <v>901</v>
-      </c>
-      <c r="I168" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>902</v>
+      </c>
+      <c r="B169">
+        <v>4.7</v>
+      </c>
+      <c r="C169">
+        <v>133470</v>
+      </c>
+      <c r="D169" t="s">
+        <v>427</v>
+      </c>
+      <c r="E169" t="s">
         <v>903</v>
       </c>
-      <c r="B169">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C169">
-        <v>470793</v>
-      </c>
-      <c r="D169" t="s">
-        <v>406</v>
-      </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
         <v>904</v>
-      </c>
-      <c r="F169" t="s">
-        <v>905</v>
       </c>
       <c r="G169">
         <v>3</v>
       </c>
       <c r="H169" t="s">
+        <v>905</v>
+      </c>
+      <c r="I169" t="s">
         <v>906</v>
-      </c>
-      <c r="I169" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>907</v>
+      </c>
+      <c r="B170">
+        <v>4.5</v>
+      </c>
+      <c r="C170">
+        <v>228137</v>
+      </c>
+      <c r="D170" t="s">
+        <v>439</v>
+      </c>
+      <c r="E170" t="s">
         <v>908</v>
       </c>
-      <c r="B170">
-        <v>4.7</v>
-      </c>
-      <c r="C170">
-        <v>133470</v>
-      </c>
-      <c r="D170" t="s">
-        <v>433</v>
-      </c>
-      <c r="E170" t="s">
+      <c r="F170" t="s">
         <v>909</v>
-      </c>
-      <c r="F170" t="s">
-        <v>910</v>
       </c>
       <c r="G170">
         <v>3</v>
       </c>
       <c r="H170" t="s">
+        <v>910</v>
+      </c>
+      <c r="I170" t="s">
         <v>911</v>
-      </c>
-      <c r="I170" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>912</v>
+      </c>
+      <c r="B171">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C171">
+        <v>246243</v>
+      </c>
+      <c r="D171" t="s">
+        <v>870</v>
+      </c>
+      <c r="E171" t="s">
         <v>913</v>
       </c>
-      <c r="B171">
-        <v>4.5</v>
-      </c>
-      <c r="C171">
-        <v>228137</v>
-      </c>
-      <c r="D171" t="s">
-        <v>445</v>
-      </c>
-      <c r="E171" t="s">
+      <c r="F171" t="s">
         <v>914</v>
-      </c>
-      <c r="F171" t="s">
-        <v>915</v>
       </c>
       <c r="G171">
         <v>3</v>
       </c>
       <c r="H171" t="s">
+        <v>915</v>
+      </c>
+      <c r="I171" t="s">
         <v>916</v>
-      </c>
-      <c r="I171" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>917</v>
+      </c>
+      <c r="B172">
+        <v>4.5</v>
+      </c>
+      <c r="C172">
+        <v>562184</v>
+      </c>
+      <c r="D172" t="s">
+        <v>147</v>
+      </c>
+      <c r="E172" t="s">
         <v>918</v>
       </c>
-      <c r="B172">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C172">
-        <v>246243</v>
-      </c>
-      <c r="D172" t="s">
-        <v>876</v>
-      </c>
-      <c r="E172" t="s">
+      <c r="F172" t="s">
         <v>919</v>
-      </c>
-      <c r="F172" t="s">
-        <v>920</v>
       </c>
       <c r="G172">
         <v>3</v>
       </c>
       <c r="H172" t="s">
+        <v>920</v>
+      </c>
+      <c r="I172" t="s">
         <v>921</v>
-      </c>
-      <c r="I172" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>922</v>
+      </c>
+      <c r="B173">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C173">
+        <v>306487</v>
+      </c>
+      <c r="D173" t="s">
         <v>923</v>
-      </c>
-      <c r="B173">
-        <v>4.5</v>
-      </c>
-      <c r="C173">
-        <v>562184</v>
-      </c>
-      <c r="D173" t="s">
-        <v>147</v>
       </c>
       <c r="E173" t="s">
         <v>924</v>
@@ -8467,390 +8449,390 @@
         <v>928</v>
       </c>
       <c r="B174">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="C174">
-        <v>306487</v>
+        <v>606707</v>
       </c>
       <c r="D174" t="s">
+        <v>462</v>
+      </c>
+      <c r="E174" t="s">
         <v>929</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F174" t="s">
         <v>930</v>
-      </c>
-      <c r="F174" t="s">
-        <v>931</v>
       </c>
       <c r="G174">
         <v>3</v>
       </c>
       <c r="H174" t="s">
+        <v>931</v>
+      </c>
+      <c r="I174" t="s">
         <v>932</v>
-      </c>
-      <c r="I174" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>933</v>
+      </c>
+      <c r="B175">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C175">
+        <v>498739</v>
+      </c>
+      <c r="D175" t="s">
+        <v>892</v>
+      </c>
+      <c r="E175" t="s">
         <v>934</v>
       </c>
-      <c r="B175">
-        <v>4.5</v>
-      </c>
-      <c r="C175">
-        <v>606707</v>
-      </c>
-      <c r="D175" t="s">
-        <v>468</v>
-      </c>
-      <c r="E175" t="s">
+      <c r="F175" t="s">
         <v>935</v>
-      </c>
-      <c r="F175" t="s">
-        <v>936</v>
       </c>
       <c r="G175">
         <v>3</v>
       </c>
       <c r="H175" t="s">
+        <v>936</v>
+      </c>
+      <c r="I175" t="s">
         <v>937</v>
-      </c>
-      <c r="I175" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>938</v>
+      </c>
+      <c r="B176">
+        <v>4.5</v>
+      </c>
+      <c r="C176">
+        <v>934613</v>
+      </c>
+      <c r="D176" t="s">
+        <v>439</v>
+      </c>
+      <c r="E176" t="s">
         <v>939</v>
       </c>
-      <c r="B176">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C176">
-        <v>498739</v>
-      </c>
-      <c r="D176" t="s">
-        <v>898</v>
-      </c>
-      <c r="E176" t="s">
+      <c r="F176" t="s">
         <v>940</v>
-      </c>
-      <c r="F176" t="s">
-        <v>941</v>
       </c>
       <c r="G176">
         <v>3</v>
       </c>
       <c r="H176" t="s">
+        <v>941</v>
+      </c>
+      <c r="I176" t="s">
         <v>942</v>
-      </c>
-      <c r="I176" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>943</v>
+      </c>
+      <c r="B177">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C177">
+        <v>637717</v>
+      </c>
+      <c r="D177" t="s">
+        <v>344</v>
+      </c>
+      <c r="E177" t="s">
         <v>944</v>
       </c>
-      <c r="B177">
-        <v>4.5</v>
-      </c>
-      <c r="C177">
-        <v>934613</v>
-      </c>
-      <c r="D177" t="s">
-        <v>445</v>
-      </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
         <v>945</v>
-      </c>
-      <c r="F177" t="s">
-        <v>946</v>
       </c>
       <c r="G177">
         <v>3</v>
       </c>
       <c r="H177" t="s">
+        <v>946</v>
+      </c>
+      <c r="I177" t="s">
         <v>947</v>
-      </c>
-      <c r="I177" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>948</v>
+      </c>
+      <c r="B178">
+        <v>4.7</v>
+      </c>
+      <c r="C178">
+        <v>939682</v>
+      </c>
+      <c r="D178" t="s">
+        <v>147</v>
+      </c>
+      <c r="E178" t="s">
         <v>949</v>
       </c>
-      <c r="B178">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C178">
-        <v>637717</v>
-      </c>
-      <c r="D178" t="s">
-        <v>350</v>
-      </c>
-      <c r="E178" t="s">
+      <c r="F178" t="s">
         <v>950</v>
-      </c>
-      <c r="F178" t="s">
-        <v>951</v>
       </c>
       <c r="G178">
         <v>3</v>
       </c>
       <c r="H178" t="s">
+        <v>951</v>
+      </c>
+      <c r="I178" t="s">
         <v>952</v>
-      </c>
-      <c r="I178" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>953</v>
+      </c>
+      <c r="B179">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C179">
+        <v>480760</v>
+      </c>
+      <c r="D179" t="s">
+        <v>344</v>
+      </c>
+      <c r="E179" t="s">
         <v>954</v>
       </c>
-      <c r="B179">
-        <v>4.7</v>
-      </c>
-      <c r="C179">
-        <v>939682</v>
-      </c>
-      <c r="D179" t="s">
-        <v>147</v>
-      </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
         <v>955</v>
-      </c>
-      <c r="F179" t="s">
-        <v>956</v>
       </c>
       <c r="G179">
         <v>3</v>
       </c>
       <c r="H179" t="s">
+        <v>956</v>
+      </c>
+      <c r="I179" t="s">
         <v>957</v>
-      </c>
-      <c r="I179" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>958</v>
+      </c>
+      <c r="B180">
+        <v>4.3</v>
+      </c>
+      <c r="C180">
+        <v>288822</v>
+      </c>
+      <c r="D180" t="s">
+        <v>439</v>
+      </c>
+      <c r="E180" t="s">
         <v>959</v>
       </c>
-      <c r="B180">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C180">
-        <v>480760</v>
-      </c>
-      <c r="D180" t="s">
-        <v>350</v>
-      </c>
-      <c r="E180" t="s">
+      <c r="F180" t="s">
         <v>960</v>
-      </c>
-      <c r="F180" t="s">
-        <v>961</v>
       </c>
       <c r="G180">
         <v>3</v>
       </c>
       <c r="H180" t="s">
+        <v>961</v>
+      </c>
+      <c r="I180" t="s">
         <v>962</v>
-      </c>
-      <c r="I180" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>963</v>
+      </c>
+      <c r="B181">
+        <v>4.8</v>
+      </c>
+      <c r="C181">
+        <v>931664</v>
+      </c>
+      <c r="D181" t="s">
+        <v>147</v>
+      </c>
+      <c r="E181" t="s">
         <v>964</v>
       </c>
-      <c r="B181">
-        <v>4.3</v>
-      </c>
-      <c r="C181">
-        <v>288822</v>
-      </c>
-      <c r="D181" t="s">
-        <v>445</v>
-      </c>
-      <c r="E181" t="s">
+      <c r="F181" t="s">
         <v>965</v>
-      </c>
-      <c r="F181" t="s">
-        <v>966</v>
       </c>
       <c r="G181">
         <v>3</v>
       </c>
       <c r="H181" t="s">
+        <v>966</v>
+      </c>
+      <c r="I181" t="s">
         <v>967</v>
-      </c>
-      <c r="I181" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B182">
-        <v>4.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C182">
-        <v>931664</v>
+        <v>860072</v>
       </c>
       <c r="D182" t="s">
         <v>147</v>
       </c>
       <c r="E182" t="s">
+        <v>969</v>
+      </c>
+      <c r="F182" t="s">
         <v>970</v>
-      </c>
-      <c r="F182" t="s">
-        <v>971</v>
       </c>
       <c r="G182">
         <v>3</v>
       </c>
       <c r="H182" t="s">
+        <v>971</v>
+      </c>
+      <c r="I182" t="s">
         <v>972</v>
-      </c>
-      <c r="I182" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B183">
-        <v>4.5999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C183">
-        <v>860072</v>
+        <v>661463</v>
       </c>
       <c r="D183" t="s">
         <v>147</v>
       </c>
       <c r="E183" t="s">
+        <v>974</v>
+      </c>
+      <c r="F183" t="s">
         <v>975</v>
-      </c>
-      <c r="F183" t="s">
-        <v>976</v>
       </c>
       <c r="G183">
         <v>3</v>
       </c>
       <c r="H183" t="s">
+        <v>976</v>
+      </c>
+      <c r="I183" t="s">
         <v>977</v>
-      </c>
-      <c r="I183" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>978</v>
+      </c>
+      <c r="B184">
+        <v>4.5</v>
+      </c>
+      <c r="C184">
+        <v>871687</v>
+      </c>
+      <c r="D184" t="s">
+        <v>439</v>
+      </c>
+      <c r="E184" t="s">
         <v>979</v>
       </c>
-      <c r="B184">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C184">
-        <v>661463</v>
-      </c>
-      <c r="D184" t="s">
-        <v>147</v>
-      </c>
-      <c r="E184" t="s">
+      <c r="F184" t="s">
         <v>980</v>
-      </c>
-      <c r="F184" t="s">
-        <v>981</v>
       </c>
       <c r="G184">
         <v>3</v>
       </c>
       <c r="H184" t="s">
+        <v>981</v>
+      </c>
+      <c r="I184" t="s">
         <v>982</v>
-      </c>
-      <c r="I184" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>983</v>
+      </c>
+      <c r="B185">
+        <v>4.3</v>
+      </c>
+      <c r="C185">
+        <v>265458</v>
+      </c>
+      <c r="D185" t="s">
+        <v>344</v>
+      </c>
+      <c r="E185" t="s">
         <v>984</v>
       </c>
-      <c r="B185">
-        <v>4.5</v>
-      </c>
-      <c r="C185">
-        <v>871687</v>
-      </c>
-      <c r="D185" t="s">
-        <v>445</v>
-      </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>985</v>
-      </c>
-      <c r="F185" t="s">
-        <v>986</v>
       </c>
       <c r="G185">
         <v>3</v>
       </c>
       <c r="H185" t="s">
+        <v>986</v>
+      </c>
+      <c r="I185" t="s">
         <v>987</v>
-      </c>
-      <c r="I185" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>988</v>
+      </c>
+      <c r="B186">
+        <v>4.5</v>
+      </c>
+      <c r="C186">
+        <v>505870</v>
+      </c>
+      <c r="D186" t="s">
+        <v>344</v>
+      </c>
+      <c r="E186" t="s">
         <v>989</v>
       </c>
-      <c r="B186">
-        <v>4.3</v>
-      </c>
-      <c r="C186">
-        <v>265458</v>
-      </c>
-      <c r="D186" t="s">
-        <v>350</v>
-      </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
         <v>990</v>
-      </c>
-      <c r="F186" t="s">
-        <v>991</v>
       </c>
       <c r="G186">
         <v>3</v>
       </c>
       <c r="H186" t="s">
+        <v>991</v>
+      </c>
+      <c r="I186" t="s">
         <v>992</v>
-      </c>
-      <c r="I186" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>993</v>
+      </c>
+      <c r="B187">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C187">
+        <v>102220</v>
+      </c>
+      <c r="D187" t="s">
         <v>994</v>
-      </c>
-      <c r="B187">
-        <v>4.5</v>
-      </c>
-      <c r="C187">
-        <v>505870</v>
-      </c>
-      <c r="D187" t="s">
-        <v>350</v>
       </c>
       <c r="E187" t="s">
         <v>995</v>
@@ -8873,57 +8855,28 @@
         <v>999</v>
       </c>
       <c r="B188">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="C188">
-        <v>102220</v>
+        <v>821293</v>
       </c>
       <c r="D188" t="s">
+        <v>147</v>
+      </c>
+      <c r="E188" t="s">
         <v>1000</v>
       </c>
-      <c r="E188" t="s">
+      <c r="F188" t="s">
         <v>1001</v>
-      </c>
-      <c r="F188" t="s">
-        <v>1002</v>
       </c>
       <c r="G188">
         <v>3</v>
       </c>
       <c r="H188" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I188" t="s">
         <v>1003</v>
-      </c>
-      <c r="I188" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B189">
-        <v>4.5</v>
-      </c>
-      <c r="C189">
-        <v>821293</v>
-      </c>
-      <c r="D189" t="s">
-        <v>147</v>
-      </c>
-      <c r="E189" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F189" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G189">
-        <v>3</v>
-      </c>
-      <c r="H189" t="s">
-        <v>1008</v>
-      </c>
-      <c r="I189" t="s">
-        <v>1009</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/Recommendation/data/whole_data_cleaned.xlsx
+++ b/assets/data/Recommendation/data/whole_data_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\wayou-lt\assets\data\Recommendation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCAB801-0FC6-413D-843A-F934ADDB64AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6DB470-CBE5-460C-A186-DCC372EDD67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="15165" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3411,8 +3411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4824,7 +4824,7 @@
         <v>261</v>
       </c>
       <c r="B49">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="C49">
         <v>868833</v>
@@ -5201,7 +5201,7 @@
         <v>333</v>
       </c>
       <c r="B62">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="C62">
         <v>777046</v>
@@ -5230,7 +5230,7 @@
         <v>338</v>
       </c>
       <c r="B63">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C63">
         <v>130835</v>
@@ -5491,7 +5491,7 @@
         <v>389</v>
       </c>
       <c r="B72">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="C72">
         <v>266340</v>
@@ -5549,7 +5549,7 @@
         <v>399</v>
       </c>
       <c r="B74">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C74">
         <v>653321</v>
@@ -5897,7 +5897,7 @@
         <v>467</v>
       </c>
       <c r="B86">
-        <v>4.9000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="C86">
         <v>776089</v>
@@ -5955,7 +5955,7 @@
         <v>477</v>
       </c>
       <c r="B88">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C88">
         <v>739809</v>
@@ -5984,7 +5984,7 @@
         <v>482</v>
       </c>
       <c r="B89">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C89">
         <v>360880</v>
@@ -6622,7 +6622,7 @@
         <v>596</v>
       </c>
       <c r="B111">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C111">
         <v>859308</v>
@@ -6651,7 +6651,7 @@
         <v>601</v>
       </c>
       <c r="B112">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C112">
         <v>260289</v>
@@ -6767,7 +6767,7 @@
         <v>622</v>
       </c>
       <c r="B116">
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="C116">
         <v>213192</v>
@@ -6854,7 +6854,7 @@
         <v>638</v>
       </c>
       <c r="B119">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="C119">
         <v>221021</v>
@@ -6941,7 +6941,7 @@
         <v>654</v>
       </c>
       <c r="B122">
-        <v>4.5999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="C122">
         <v>879950</v>
@@ -6999,7 +6999,7 @@
         <v>664</v>
       </c>
       <c r="B124">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="C124">
         <v>489599</v>
@@ -7057,7 +7057,7 @@
         <v>674</v>
       </c>
       <c r="B126">
-        <v>4.9000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="C126">
         <v>204226</v>
@@ -7405,7 +7405,7 @@
         <v>735</v>
       </c>
       <c r="B138">
-        <v>4.9000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="C138">
         <v>443705</v>
@@ -7463,7 +7463,7 @@
         <v>745</v>
       </c>
       <c r="B140">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="C140">
         <v>755016</v>
@@ -7492,7 +7492,7 @@
         <v>751</v>
       </c>
       <c r="B141">
-        <v>4.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C141">
         <v>708729</v>
@@ -7550,7 +7550,7 @@
         <v>762</v>
       </c>
       <c r="B143">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="C143">
         <v>516585</v>
@@ -7579,7 +7579,7 @@
         <v>767</v>
       </c>
       <c r="B144">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="C144">
         <v>897781</v>
@@ -7608,7 +7608,7 @@
         <v>773</v>
       </c>
       <c r="B145">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="C145">
         <v>148271</v>
@@ -7666,7 +7666,7 @@
         <v>784</v>
       </c>
       <c r="B147">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="C147">
         <v>322220</v>
@@ -7695,7 +7695,7 @@
         <v>789</v>
       </c>
       <c r="B148">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C148">
         <v>563837</v>
@@ -7724,7 +7724,7 @@
         <v>794</v>
       </c>
       <c r="B149">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="C149">
         <v>554262</v>
@@ -7898,7 +7898,7 @@
         <v>826</v>
       </c>
       <c r="B155">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="C155">
         <v>928073</v>
@@ -8159,7 +8159,7 @@
         <v>875</v>
       </c>
       <c r="B164">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="C164">
         <v>274391</v>
@@ -8565,7 +8565,7 @@
         <v>948</v>
       </c>
       <c r="B178">
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C178">
         <v>939682</v>
@@ -8710,7 +8710,7 @@
         <v>973</v>
       </c>
       <c r="B183">
-        <v>4.9000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C183">
         <v>661463</v>
